--- a/Database_postcovid_0106_zonderptnr.xlsx
+++ b/Database_postcovid_0106_zonderptnr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vf-lumc-home.lumcnet.prod.intern\lumc-home$\ajfhameete\MyDocs\TM3\Post-COVID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvanwinden\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087EF536-4A23-462D-979C-4C0CAE869FF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C871484E-6371-4275-BF5C-9709BEF4742C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="335" xr2:uid="{EB8735C2-F9ED-41B4-955E-DC9D3576635E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="335" xr2:uid="{EB8735C2-F9ED-41B4-955E-DC9D3576635E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_12weken" sheetId="2" r:id="rId1"/>
@@ -53,9 +53,9 @@
   <commentList>
     <comment ref="BO1" authorId="0" shapeId="0" xr:uid="{DB4BD501-E576-4BE4-A3FC-4D7EA26D9F0C}">
       <text>
-        <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     0=geen
 1= 1 hulpmiddel
 2=2 hulpmiddelen
@@ -66,9 +66,9 @@
     </comment>
     <comment ref="BP1" authorId="1" shapeId="0" xr:uid="{93D65A3F-F802-4689-9F03-CBA08BBAF437}">
       <text>
-        <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     0=geen
 1=fysiotherapie 1e lijn
 2=geriatrische revalidatie
@@ -77,27 +77,27 @@
     </comment>
     <comment ref="BQ1" authorId="2" shapeId="0" xr:uid="{128F9785-1429-4205-B109-2832BA979F40}">
       <text>
-        <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     NRS=Numeric Rating Scale (0/10 scale). Zelf geraporteerde maat voor ADL functie, waarbij 0 is zeer slecht en 10 is zeer goed
 999=missing value</t>
       </text>
     </comment>
     <comment ref="BR1" authorId="3" shapeId="0" xr:uid="{47C87C50-6254-4AD0-BA60-FA6236EE4BA2}">
       <text>
-        <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     NRS = Numeric Rating Scale (0/10 scale). Zelf geraporteerde maat voor conditie, waarbij 0 is zeer slecht en 10 is zeer goed.
 999=missing value</t>
       </text>
     </comment>
     <comment ref="BS1" authorId="4" shapeId="0" xr:uid="{F528816E-54D5-4D9C-ABAE-A18B9B60E576}">
       <text>
-        <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     GPE=Global Perceived Effect (zelf geraporteerd)
 In welke mate bent u sinds het begin van de behandeling hersteld van uw klachten? 
 Mate van herstel:
@@ -113,36 +113,36 @@
     </comment>
     <comment ref="BT1" authorId="5" shapeId="0" xr:uid="{EBCD8A38-472A-47CC-AC98-790D70370856}">
       <text>
-        <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     CPaX = Chelsea Critical Care Physical Assessment tool (maat voor fysiek functioneren tijdens en na IC 
 999=missing value</t>
       </text>
     </comment>
     <comment ref="BU1" authorId="6" shapeId="0" xr:uid="{C61AB2A8-8DC6-4037-8895-150E7FDE3C11}">
       <text>
-        <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     HKK=Handknijpkracht (kg). Gemeten aan dominante hand
 999=missing value</t>
       </text>
     </comment>
     <comment ref="BV1" authorId="7" shapeId="0" xr:uid="{0D500AB7-4D5E-4E5F-8BBF-645CE263B4E6}">
       <text>
-        <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     HKK_%pred=Handknijpkracht (%pred) genormaliseerd voor normwaarden leeftijd, geslacht en dominante handzijde (Gilbertson, L. and Barber-Lomax, S.  (1994), ‘Power and Pinch Grip Strength Recorded Using the Hand-Held Jamar Dynamometer and B+L Hydraulic Pinch Guage: British Normative Data for Adults’, British Journal of Occupational Therapy, 57 (12), pp. 483-488.)
 999=missing value</t>
       </text>
     </comment>
     <comment ref="BW1" authorId="8" shapeId="0" xr:uid="{36CC7705-3AE8-4EDF-9776-75649A94826D}">
       <text>
-        <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     0=normaal (HKK-&gt;80%pred)
 1=Verlaagd (HKK&lt;80%pred)
 999=missing value</t>
@@ -150,9 +150,9 @@
     </comment>
     <comment ref="BX1" authorId="9" shapeId="0" xr:uid="{9774D488-0697-4E3F-A482-F7E589DACBE5}">
       <text>
-        <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     6MWD_m=6 minuten wandeltest uitslag in meters
 999=missende data obv geen valide test uitvoerbaar om medisch/fysieke redenen
 1111 = missende data obv organisatorische redenen</t>
@@ -160,9 +160,9 @@
     </comment>
     <comment ref="BY1" authorId="10" shapeId="0" xr:uid="{6BCA499D-D566-4FFC-9293-D7500C67A101}">
       <text>
-        <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     6MWD%pred=6 minuten wandeltest uitslag genormaliseerd voor normwaarden leeftijd, geslacht, lengte, gewicht (Enright et al, 1998)
 999=missende data obv geen valide test uitvoerbaar om medisch/fysieke redenen
 1111 = missende data obv organisatorische redenen</t>
@@ -170,9 +170,9 @@
     </comment>
     <comment ref="BZ1" authorId="11" shapeId="0" xr:uid="{3A752AC2-DE51-4FCC-A4CC-D997E6BD3AE9}">
       <text>
-        <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     0=normaal (6MWD-&gt;80%pred)
 1=Verlaagd (6MWD&lt;80%pred)
 999=missing value meische/fysieke reden
@@ -658,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -757,12 +757,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="179">
+  <dxfs count="176">
     <dxf>
       <font>
         <b val="0"/>
@@ -2886,45 +2888,53 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF006100"/>
       </font>
-      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF006100"/>
       </font>
-      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4301,83 +4311,45 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4399,8 +4371,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96E3ECB6-696A-45EB-8C3C-8E61AE0EC045}" name="Table1" displayName="Table1" ref="A1:CF347" totalsRowCount="1" headerRowDxfId="86" dataDxfId="84" totalsRowDxfId="85">
-  <autoFilter ref="A1:CF346" xr:uid="{DA15A083-9CFD-4606-9D6D-FD6C2F925B69}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96E3ECB6-696A-45EB-8C3C-8E61AE0EC045}" name="Table1" displayName="Table1" ref="A1:CF376" totalsRowCount="1" headerRowDxfId="175" dataDxfId="174" totalsRowDxfId="173">
+  <autoFilter ref="A1:CF375" xr:uid="{DA15A083-9CFD-4606-9D6D-FD6C2F925B69}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4487,92 +4459,92 @@
     <filterColumn colId="83" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="84">
-    <tableColumn id="1" xr3:uid="{7E14AE77-7973-480D-9B74-A783F5E84D77}" name="Study_ID" dataDxfId="170" totalsRowDxfId="83"/>
-    <tableColumn id="19" xr3:uid="{8FD92FA2-A7D0-4F7B-84B6-E4364F1C306C}" name="Patient_ID" dataDxfId="169" totalsRowDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{01E1C117-C834-462A-8909-BFB6DEAF752D}" name="Category" dataDxfId="168" totalsRowDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{89D94873-B4CC-44E1-BDFC-4C28E06F739E}" name="Sex" dataDxfId="167" totalsRowDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{92A0319E-0554-4210-9128-72C632C81B66}" name="Date_of_birth" dataDxfId="166" totalsRowDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{ABF90AF6-8A28-48B7-8B5D-5C03BA250903}" name="Length" dataDxfId="165" totalsRowDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{8D03BDE3-0839-4878-A87E-F97D7F853A35}" name="Weight" dataDxfId="164" totalsRowDxfId="77"/>
-    <tableColumn id="7" xr3:uid="{D9CE12D3-0243-4817-8A77-CED1AA36BC6B}" name="BMI" dataDxfId="163" totalsRowDxfId="76">
+    <tableColumn id="1" xr3:uid="{7E14AE77-7973-480D-9B74-A783F5E84D77}" name="Study_ID" dataDxfId="172" totalsRowDxfId="83"/>
+    <tableColumn id="19" xr3:uid="{8FD92FA2-A7D0-4F7B-84B6-E4364F1C306C}" name="Patient_ID" dataDxfId="171" totalsRowDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{01E1C117-C834-462A-8909-BFB6DEAF752D}" name="Category" dataDxfId="170" totalsRowDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{89D94873-B4CC-44E1-BDFC-4C28E06F739E}" name="Sex" dataDxfId="169" totalsRowDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{92A0319E-0554-4210-9128-72C632C81B66}" name="Date_of_birth" dataDxfId="168" totalsRowDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{ABF90AF6-8A28-48B7-8B5D-5C03BA250903}" name="Length" dataDxfId="167" totalsRowDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{8D03BDE3-0839-4878-A87E-F97D7F853A35}" name="Weight" dataDxfId="166" totalsRowDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{D9CE12D3-0243-4817-8A77-CED1AA36BC6B}" name="BMI" dataDxfId="165" totalsRowDxfId="76">
       <calculatedColumnFormula>(G1/(F1/100)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7F45ACDA-2618-40C2-9209-64366B546A16}" name="Smoking" dataDxfId="162" totalsRowDxfId="75"/>
-    <tableColumn id="79" xr3:uid="{E65C409A-AB76-4C05-A70D-93516F22A83E}" name="Asthma" dataDxfId="161" totalsRowDxfId="74"/>
-    <tableColumn id="78" xr3:uid="{6DFECDE1-399F-4AB0-9762-6C4081BB7AA3}" name="COPD" dataDxfId="160" totalsRowDxfId="73"/>
-    <tableColumn id="77" xr3:uid="{8257D2E8-AF9F-44CC-A6C8-CD6C67E36F2C}" name="Lungfibrosis" dataDxfId="159" totalsRowDxfId="72"/>
-    <tableColumn id="76" xr3:uid="{F25B1A2E-CB56-46D2-A5CB-C202873CF03C}" name="Pulmonary_Embolism" dataDxfId="158" totalsRowDxfId="71"/>
-    <tableColumn id="75" xr3:uid="{D1A6997D-CEE7-43A9-8F0A-EAC6E67E6F08}" name="Diabetes_Mellitus" dataDxfId="157" totalsRowDxfId="70"/>
-    <tableColumn id="74" xr3:uid="{2CCF76C3-1654-4773-81B6-4767B6DD0A84}" name="Hypertension" dataDxfId="156" totalsRowDxfId="69"/>
-    <tableColumn id="60" xr3:uid="{F58E93C0-9D7D-449E-AB0F-AE716CCD467D}" name="LF_6w_FEV1 _abs" dataDxfId="155" totalsRowDxfId="68"/>
-    <tableColumn id="59" xr3:uid="{F00E8D64-8C85-44F0-AAA3-DF8971496BEB}" name="LF_6w_FEV1_pred" dataDxfId="154" totalsRowDxfId="67"/>
-    <tableColumn id="58" xr3:uid="{A47AE5C3-0C21-421C-A01A-C716A1325C2F}" name="LF_6w_FVC_abs" dataDxfId="153" totalsRowDxfId="66"/>
-    <tableColumn id="57" xr3:uid="{8C928554-A19E-408A-98FF-6F468BA165EF}" name="LF_6w_FVC_pred" dataDxfId="152" totalsRowDxfId="65"/>
-    <tableColumn id="56" xr3:uid="{1D1E976B-7B4D-4DFF-AE83-0633BE5443BD}" name="LF_6w_Tiff_abs" dataDxfId="151" totalsRowDxfId="64"/>
-    <tableColumn id="55" xr3:uid="{BFC9B10E-C669-4390-B263-2093F4266C75}" name="LF_6w_Tiff_pred" dataDxfId="150" totalsRowDxfId="63"/>
-    <tableColumn id="54" xr3:uid="{383306B2-0433-4593-8C2C-0A97955C9171}" name="LF_6w_DLCOc_abs" dataDxfId="149" totalsRowDxfId="62"/>
-    <tableColumn id="53" xr3:uid="{3B9D71BB-F235-42DD-BF13-4EF0441B6743}" name="LF_6w_DLCOc_pred" dataDxfId="148" totalsRowDxfId="61"/>
-    <tableColumn id="52" xr3:uid="{531B3F18-C51D-4EFC-B02C-0C1F3A7E8861}" name="LF_6w_DLCO_abs" dataDxfId="147" totalsRowDxfId="60"/>
-    <tableColumn id="51" xr3:uid="{954592E7-5C43-4F40-9075-63E0A8C879DE}" name="LF_6w_DLCO_pred" dataDxfId="146" totalsRowDxfId="59"/>
-    <tableColumn id="50" xr3:uid="{86E7E68B-C447-4074-B036-F522C2156572}" name="eN_6w" dataDxfId="145" totalsRowDxfId="58"/>
-    <tableColumn id="49" xr3:uid="{76DF2F20-CB03-4DD0-A514-55C7C4FA1E08}" name="eN_ID_6w" dataDxfId="144" totalsRowDxfId="57"/>
-    <tableColumn id="48" xr3:uid="{E91BF0BE-E3A7-45CD-8CEF-4FA7326BCCB4}" name="eN_6w_S1" dataDxfId="143" totalsRowDxfId="56"/>
-    <tableColumn id="47" xr3:uid="{C375DCB6-69F5-4DCE-B29F-A73EC36B7AE5}" name="eN_6w_S3" dataDxfId="142" totalsRowDxfId="55"/>
-    <tableColumn id="61" xr3:uid="{B0563ED3-6E96-4904-B242-E0A44A038B09}" name="eN_6w_S4" dataDxfId="141" totalsRowDxfId="54"/>
-    <tableColumn id="46" xr3:uid="{BF0F187B-AF60-4822-97DF-E28D268505C9}" name="eN_6w_S5" dataDxfId="140" totalsRowDxfId="53"/>
-    <tableColumn id="45" xr3:uid="{FFB9B53E-61EB-4473-A367-42352FE5421B}" name="eN_6w_S6" dataDxfId="139" totalsRowDxfId="52"/>
-    <tableColumn id="44" xr3:uid="{0A891017-56A2-4A94-A44E-F7819BE53A36}" name="eN_6w_S7" dataDxfId="138" totalsRowDxfId="51"/>
-    <tableColumn id="43" xr3:uid="{A01734AD-7F94-46C2-83F9-C82379C9A733}" name="eN_6w_S1BH" dataDxfId="137" totalsRowDxfId="50"/>
-    <tableColumn id="42" xr3:uid="{98FAF08E-24A0-4D72-A79D-5B59C74D3904}" name="eN_6w_S2BH" dataDxfId="136" totalsRowDxfId="49"/>
-    <tableColumn id="41" xr3:uid="{EB0F9B35-6127-463F-B64C-180FCA4B5AE6}" name="eN_6w_S3BH" dataDxfId="135" totalsRowDxfId="48"/>
-    <tableColumn id="40" xr3:uid="{51F84A37-247F-4CA8-ACC6-1AC7345AE639}" name="eN_6w_S4BH" dataDxfId="134" totalsRowDxfId="47"/>
-    <tableColumn id="39" xr3:uid="{15100C22-DAF8-4267-AC14-73D43DA81863}" name="eN_6w_S5BH" dataDxfId="133" totalsRowDxfId="46"/>
-    <tableColumn id="38" xr3:uid="{E36F75C3-5E52-42BE-AA3A-A2BB7A8473C0}" name="eN_6w_S6BH" dataDxfId="132" totalsRowDxfId="45"/>
-    <tableColumn id="37" xr3:uid="{91495CFF-EC5E-4139-95AB-234A59E033F2}" name="eN_6w_S7BH" dataDxfId="131" totalsRowDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{95EEC881-10B1-4768-B246-03BBD34FDB6A}" name="LF_12w_FEV1_abs" dataDxfId="130" totalsRowDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{213F3D2F-2EC8-4EF8-A7D8-705EC448CEA0}" name="LF_12w_FEV1_pred" dataDxfId="129" totalsRowDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{4DBF907A-B207-4FE5-9D65-2522D0A7F869}" name="LF_12w_FVC_abs" dataDxfId="128" totalsRowDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{DA7F97A4-F498-4FB4-8071-0C298AB08292}" name="LF_12w_FVC_pred" dataDxfId="127" totalsRowDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{4F914753-BA3D-4805-A129-067288EAFCFD}" name="LF_12w_Tiff_abs" dataDxfId="126" totalsRowDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{098E4DD3-20F7-42B1-9CC0-F6477D02F76D}" name="LF_12w_Tiff_pred" dataDxfId="125" totalsRowDxfId="38"/>
-    <tableColumn id="15" xr3:uid="{9990DAA8-7202-4064-9CE0-99C2C680E918}" name="LF_12w_DLCOc_abs" dataDxfId="124" totalsRowDxfId="37"/>
-    <tableColumn id="16" xr3:uid="{AC495E98-7764-4841-B55E-54A5E5F3294E}" name="LF_12w_DLCOc_pred" dataDxfId="123" totalsRowDxfId="36"/>
-    <tableColumn id="17" xr3:uid="{4511EE00-2F6B-45A7-B0CA-3B6E95916934}" name="LF_12w_DLCO_abs" dataDxfId="122" totalsRowDxfId="35"/>
-    <tableColumn id="18" xr3:uid="{766D9272-4B09-4891-AB2C-482B0C9847A9}" name="LF_12w_DLCO_pred" dataDxfId="121" totalsRowDxfId="34"/>
-    <tableColumn id="20" xr3:uid="{8805B33F-785D-4E09-8598-EDD6133F74EA}" name="CT_12w" dataDxfId="120" totalsRowDxfId="33"/>
-    <tableColumn id="35" xr3:uid="{BBE3BF65-C2E4-4556-93A7-1CCF5D8D7EF9}" name="eN_12w" dataDxfId="119" totalsRowDxfId="32"/>
-    <tableColumn id="21" xr3:uid="{6E3B8EE1-1FD4-4BC0-868E-225D6212DC67}" name="eN_ID_12w2" dataDxfId="118" totalsRowDxfId="31"/>
-    <tableColumn id="22" xr3:uid="{B47D5BD5-8290-4749-A8DB-E15EFE80D675}" name="eN_12w_S1" dataDxfId="117" totalsRowDxfId="30"/>
-    <tableColumn id="23" xr3:uid="{45ACDA2B-08CB-4605-B346-FE2CAB349D1A}" name="eN_12w_S3" dataDxfId="116" totalsRowDxfId="29"/>
-    <tableColumn id="24" xr3:uid="{B14C3E67-033A-4746-A383-C4B91BB230C9}" name="eN_12w_S4" dataDxfId="115" totalsRowDxfId="28"/>
-    <tableColumn id="25" xr3:uid="{5FB7400B-D7D7-441C-A006-7657C2712E1F}" name="eN_12w_S5" dataDxfId="114" totalsRowDxfId="27"/>
-    <tableColumn id="26" xr3:uid="{36CF8765-9AA7-4319-AA95-AE5AD49C535A}" name="eN_12w_S6" dataDxfId="113" totalsRowDxfId="26"/>
-    <tableColumn id="27" xr3:uid="{34205DC8-C177-45A0-BCC0-1A3FA773978E}" name="eN_12w_S7" dataDxfId="112" totalsRowDxfId="25"/>
-    <tableColumn id="28" xr3:uid="{61FC02DF-BB10-403D-AA32-830CC3FBBDB5}" name="eN_12w_S1BH" dataDxfId="111" totalsRowDxfId="24"/>
-    <tableColumn id="29" xr3:uid="{DDA0A62B-B180-418C-ACA2-D5D74C89D327}" name="eN_12w_S2BH" dataDxfId="110" totalsRowDxfId="23"/>
-    <tableColumn id="30" xr3:uid="{1D797B25-49FE-448A-BFD4-3025F158D73A}" name="eN_12w_S3BH" dataDxfId="109" totalsRowDxfId="22"/>
-    <tableColumn id="31" xr3:uid="{1F6D33E8-9DF1-45AA-B507-DF692E0682F2}" name="eN_12w_S4BH" dataDxfId="108" totalsRowDxfId="21"/>
-    <tableColumn id="32" xr3:uid="{525534F4-C415-47E3-AD70-8843498067E1}" name="eN_12w_S5BH" dataDxfId="107" totalsRowDxfId="20"/>
-    <tableColumn id="33" xr3:uid="{05808F19-8323-4BFC-9B1F-3EBD076DDC56}" name="eN_12w_S6BH" dataDxfId="106" totalsRowDxfId="19"/>
-    <tableColumn id="34" xr3:uid="{25C94957-B8C6-4AC4-B9DF-294A491EE564}" name="eN_12w_S7BH" dataDxfId="105" totalsRowDxfId="18"/>
-    <tableColumn id="62" xr3:uid="{044CBD05-DA01-4F7B-B860-AD8857F36D0E}" name="Gebruik_hulpmiddelen" dataDxfId="104" totalsRowDxfId="17"/>
-    <tableColumn id="63" xr3:uid="{932F273E-728E-4DB5-97C6-F43125B0C99E}" name="Ontvangen_herstelzorg" dataDxfId="103" totalsRowDxfId="16"/>
-    <tableColumn id="64" xr3:uid="{15712BB4-B00C-4993-925D-DB93A1A59F42}" name="NRS_ADL" dataDxfId="102" totalsRowDxfId="15"/>
-    <tableColumn id="65" xr3:uid="{399762B2-A4B9-4B7A-A76A-390C362FD9CB}" name="Conditie" dataDxfId="101" totalsRowDxfId="14"/>
-    <tableColumn id="66" xr3:uid="{8CF660D3-8FBB-4A97-835F-8735F8DB9B70}" name="GPE" dataDxfId="100" totalsRowDxfId="13"/>
-    <tableColumn id="67" xr3:uid="{90FC3002-9DFD-421A-B044-562B8C439F3F}" name="CPaX" dataDxfId="99" totalsRowDxfId="12"/>
-    <tableColumn id="68" xr3:uid="{254491D0-5E02-4C84-BC5D-B4F36C7E727B}" name="HKK_Kg" dataDxfId="98" totalsRowDxfId="11"/>
-    <tableColumn id="69" xr3:uid="{CAF240A0-BF03-4A1D-AFF7-A3B26718ED9B}" name="HKK_%pred" dataDxfId="97" totalsRowDxfId="10"/>
-    <tableColumn id="70" xr3:uid="{012D01C5-F282-468B-B069-00536BFBEFB5}" name="Algehele_spierkracht" dataDxfId="96" totalsRowDxfId="9"/>
-    <tableColumn id="71" xr3:uid="{A8470AEF-2083-4A7C-A164-7D988ED6510E}" name="6MWD_m" dataDxfId="95" totalsRowDxfId="8"/>
-    <tableColumn id="72" xr3:uid="{AB66DBA3-AA3F-47A1-806F-180D4BC0F25A}" name="6MWD_%pred" dataDxfId="94" totalsRowDxfId="7"/>
-    <tableColumn id="73" xr3:uid="{74EBB3C1-8AB4-4D61-98C9-04B0A6E213D2}" name="Cardiorespiratoire_fitheid" dataDxfId="93" totalsRowDxfId="6"/>
-    <tableColumn id="36" xr3:uid="{D7F07C53-C0E5-4E9F-9DA4-9F71A2057E60}" name="RBK" dataDxfId="92" totalsRowDxfId="5"/>
-    <tableColumn id="80" xr3:uid="{F6673C9C-41E4-44AE-9A68-6884B7FBBD83}" name="MK" dataDxfId="91" totalsRowDxfId="4"/>
-    <tableColumn id="81" xr3:uid="{28741393-5F38-4A40-B2EF-7E96CAEAE2D9}" name="ROK" dataDxfId="90" totalsRowDxfId="3"/>
-    <tableColumn id="82" xr3:uid="{3515CF33-7185-4C49-84C5-2F142722BEF5}" name="LBK" dataDxfId="89" totalsRowDxfId="2"/>
-    <tableColumn id="83" xr3:uid="{98F08B84-C9AA-4EFB-9697-CE117C786770}" name="LOK" dataDxfId="88" totalsRowDxfId="1"/>
-    <tableColumn id="84" xr3:uid="{B411AE45-C2AD-450D-B10B-C89E4011E21C}" name="CTSS" dataDxfId="87" totalsRowDxfId="0">
+    <tableColumn id="8" xr3:uid="{7F45ACDA-2618-40C2-9209-64366B546A16}" name="Smoking" dataDxfId="164" totalsRowDxfId="75"/>
+    <tableColumn id="79" xr3:uid="{E65C409A-AB76-4C05-A70D-93516F22A83E}" name="Asthma" dataDxfId="163" totalsRowDxfId="74"/>
+    <tableColumn id="78" xr3:uid="{6DFECDE1-399F-4AB0-9762-6C4081BB7AA3}" name="COPD" dataDxfId="162" totalsRowDxfId="73"/>
+    <tableColumn id="77" xr3:uid="{8257D2E8-AF9F-44CC-A6C8-CD6C67E36F2C}" name="Lungfibrosis" dataDxfId="161" totalsRowDxfId="72"/>
+    <tableColumn id="76" xr3:uid="{F25B1A2E-CB56-46D2-A5CB-C202873CF03C}" name="Pulmonary_Embolism" dataDxfId="160" totalsRowDxfId="71"/>
+    <tableColumn id="75" xr3:uid="{D1A6997D-CEE7-43A9-8F0A-EAC6E67E6F08}" name="Diabetes_Mellitus" dataDxfId="159" totalsRowDxfId="70"/>
+    <tableColumn id="74" xr3:uid="{2CCF76C3-1654-4773-81B6-4767B6DD0A84}" name="Hypertension" dataDxfId="158" totalsRowDxfId="69"/>
+    <tableColumn id="60" xr3:uid="{F58E93C0-9D7D-449E-AB0F-AE716CCD467D}" name="LF_6w_FEV1 _abs" dataDxfId="157" totalsRowDxfId="68"/>
+    <tableColumn id="59" xr3:uid="{F00E8D64-8C85-44F0-AAA3-DF8971496BEB}" name="LF_6w_FEV1_pred" dataDxfId="156" totalsRowDxfId="67"/>
+    <tableColumn id="58" xr3:uid="{A47AE5C3-0C21-421C-A01A-C716A1325C2F}" name="LF_6w_FVC_abs" dataDxfId="155" totalsRowDxfId="66"/>
+    <tableColumn id="57" xr3:uid="{8C928554-A19E-408A-98FF-6F468BA165EF}" name="LF_6w_FVC_pred" dataDxfId="154" totalsRowDxfId="65"/>
+    <tableColumn id="56" xr3:uid="{1D1E976B-7B4D-4DFF-AE83-0633BE5443BD}" name="LF_6w_Tiff_abs" dataDxfId="153" totalsRowDxfId="64"/>
+    <tableColumn id="55" xr3:uid="{BFC9B10E-C669-4390-B263-2093F4266C75}" name="LF_6w_Tiff_pred" dataDxfId="152" totalsRowDxfId="63"/>
+    <tableColumn id="54" xr3:uid="{383306B2-0433-4593-8C2C-0A97955C9171}" name="LF_6w_DLCOc_abs" dataDxfId="151" totalsRowDxfId="62"/>
+    <tableColumn id="53" xr3:uid="{3B9D71BB-F235-42DD-BF13-4EF0441B6743}" name="LF_6w_DLCOc_pred" dataDxfId="150" totalsRowDxfId="61"/>
+    <tableColumn id="52" xr3:uid="{531B3F18-C51D-4EFC-B02C-0C1F3A7E8861}" name="LF_6w_DLCO_abs" dataDxfId="149" totalsRowDxfId="60"/>
+    <tableColumn id="51" xr3:uid="{954592E7-5C43-4F40-9075-63E0A8C879DE}" name="LF_6w_DLCO_pred" dataDxfId="148" totalsRowDxfId="59"/>
+    <tableColumn id="50" xr3:uid="{86E7E68B-C447-4074-B036-F522C2156572}" name="eN_6w" dataDxfId="147" totalsRowDxfId="58"/>
+    <tableColumn id="49" xr3:uid="{76DF2F20-CB03-4DD0-A514-55C7C4FA1E08}" name="eN_ID_6w" dataDxfId="146" totalsRowDxfId="57"/>
+    <tableColumn id="48" xr3:uid="{E91BF0BE-E3A7-45CD-8CEF-4FA7326BCCB4}" name="eN_6w_S1" dataDxfId="145" totalsRowDxfId="56"/>
+    <tableColumn id="47" xr3:uid="{C375DCB6-69F5-4DCE-B29F-A73EC36B7AE5}" name="eN_6w_S3" dataDxfId="144" totalsRowDxfId="55"/>
+    <tableColumn id="61" xr3:uid="{B0563ED3-6E96-4904-B242-E0A44A038B09}" name="eN_6w_S4" dataDxfId="143" totalsRowDxfId="54"/>
+    <tableColumn id="46" xr3:uid="{BF0F187B-AF60-4822-97DF-E28D268505C9}" name="eN_6w_S5" dataDxfId="142" totalsRowDxfId="53"/>
+    <tableColumn id="45" xr3:uid="{FFB9B53E-61EB-4473-A367-42352FE5421B}" name="eN_6w_S6" dataDxfId="141" totalsRowDxfId="52"/>
+    <tableColumn id="44" xr3:uid="{0A891017-56A2-4A94-A44E-F7819BE53A36}" name="eN_6w_S7" dataDxfId="140" totalsRowDxfId="51"/>
+    <tableColumn id="43" xr3:uid="{A01734AD-7F94-46C2-83F9-C82379C9A733}" name="eN_6w_S1BH" dataDxfId="139" totalsRowDxfId="50"/>
+    <tableColumn id="42" xr3:uid="{98FAF08E-24A0-4D72-A79D-5B59C74D3904}" name="eN_6w_S2BH" dataDxfId="138" totalsRowDxfId="49"/>
+    <tableColumn id="41" xr3:uid="{EB0F9B35-6127-463F-B64C-180FCA4B5AE6}" name="eN_6w_S3BH" dataDxfId="137" totalsRowDxfId="48"/>
+    <tableColumn id="40" xr3:uid="{51F84A37-247F-4CA8-ACC6-1AC7345AE639}" name="eN_6w_S4BH" dataDxfId="136" totalsRowDxfId="47"/>
+    <tableColumn id="39" xr3:uid="{15100C22-DAF8-4267-AC14-73D43DA81863}" name="eN_6w_S5BH" dataDxfId="135" totalsRowDxfId="46"/>
+    <tableColumn id="38" xr3:uid="{E36F75C3-5E52-42BE-AA3A-A2BB7A8473C0}" name="eN_6w_S6BH" dataDxfId="134" totalsRowDxfId="45"/>
+    <tableColumn id="37" xr3:uid="{91495CFF-EC5E-4139-95AB-234A59E033F2}" name="eN_6w_S7BH" dataDxfId="133" totalsRowDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{95EEC881-10B1-4768-B246-03BBD34FDB6A}" name="LF_12w_FEV1_abs" dataDxfId="132" totalsRowDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{213F3D2F-2EC8-4EF8-A7D8-705EC448CEA0}" name="LF_12w_FEV1_pred" dataDxfId="131" totalsRowDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{4DBF907A-B207-4FE5-9D65-2522D0A7F869}" name="LF_12w_FVC_abs" dataDxfId="130" totalsRowDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{DA7F97A4-F498-4FB4-8071-0C298AB08292}" name="LF_12w_FVC_pred" dataDxfId="129" totalsRowDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{4F914753-BA3D-4805-A129-067288EAFCFD}" name="LF_12w_Tiff_abs" dataDxfId="128" totalsRowDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{098E4DD3-20F7-42B1-9CC0-F6477D02F76D}" name="LF_12w_Tiff_pred" dataDxfId="127" totalsRowDxfId="38"/>
+    <tableColumn id="15" xr3:uid="{9990DAA8-7202-4064-9CE0-99C2C680E918}" name="LF_12w_DLCOc_abs" dataDxfId="126" totalsRowDxfId="37"/>
+    <tableColumn id="16" xr3:uid="{AC495E98-7764-4841-B55E-54A5E5F3294E}" name="LF_12w_DLCOc_pred" dataDxfId="125" totalsRowDxfId="36"/>
+    <tableColumn id="17" xr3:uid="{4511EE00-2F6B-45A7-B0CA-3B6E95916934}" name="LF_12w_DLCO_abs" dataDxfId="124" totalsRowDxfId="35"/>
+    <tableColumn id="18" xr3:uid="{766D9272-4B09-4891-AB2C-482B0C9847A9}" name="LF_12w_DLCO_pred" dataDxfId="123" totalsRowDxfId="34"/>
+    <tableColumn id="20" xr3:uid="{8805B33F-785D-4E09-8598-EDD6133F74EA}" name="CT_12w" dataDxfId="122" totalsRowDxfId="33"/>
+    <tableColumn id="35" xr3:uid="{BBE3BF65-C2E4-4556-93A7-1CCF5D8D7EF9}" name="eN_12w" dataDxfId="121" totalsRowDxfId="32"/>
+    <tableColumn id="21" xr3:uid="{6E3B8EE1-1FD4-4BC0-868E-225D6212DC67}" name="eN_ID_12w2" dataDxfId="120" totalsRowDxfId="31"/>
+    <tableColumn id="22" xr3:uid="{B47D5BD5-8290-4749-A8DB-E15EFE80D675}" name="eN_12w_S1" dataDxfId="119" totalsRowDxfId="30"/>
+    <tableColumn id="23" xr3:uid="{45ACDA2B-08CB-4605-B346-FE2CAB349D1A}" name="eN_12w_S3" dataDxfId="118" totalsRowDxfId="29"/>
+    <tableColumn id="24" xr3:uid="{B14C3E67-033A-4746-A383-C4B91BB230C9}" name="eN_12w_S4" dataDxfId="117" totalsRowDxfId="28"/>
+    <tableColumn id="25" xr3:uid="{5FB7400B-D7D7-441C-A006-7657C2712E1F}" name="eN_12w_S5" dataDxfId="116" totalsRowDxfId="27"/>
+    <tableColumn id="26" xr3:uid="{36CF8765-9AA7-4319-AA95-AE5AD49C535A}" name="eN_12w_S6" dataDxfId="115" totalsRowDxfId="26"/>
+    <tableColumn id="27" xr3:uid="{34205DC8-C177-45A0-BCC0-1A3FA773978E}" name="eN_12w_S7" dataDxfId="114" totalsRowDxfId="25"/>
+    <tableColumn id="28" xr3:uid="{61FC02DF-BB10-403D-AA32-830CC3FBBDB5}" name="eN_12w_S1BH" dataDxfId="113" totalsRowDxfId="24"/>
+    <tableColumn id="29" xr3:uid="{DDA0A62B-B180-418C-ACA2-D5D74C89D327}" name="eN_12w_S2BH" dataDxfId="112" totalsRowDxfId="23"/>
+    <tableColumn id="30" xr3:uid="{1D797B25-49FE-448A-BFD4-3025F158D73A}" name="eN_12w_S3BH" dataDxfId="111" totalsRowDxfId="22"/>
+    <tableColumn id="31" xr3:uid="{1F6D33E8-9DF1-45AA-B507-DF692E0682F2}" name="eN_12w_S4BH" dataDxfId="110" totalsRowDxfId="21"/>
+    <tableColumn id="32" xr3:uid="{525534F4-C415-47E3-AD70-8843498067E1}" name="eN_12w_S5BH" dataDxfId="109" totalsRowDxfId="20"/>
+    <tableColumn id="33" xr3:uid="{05808F19-8323-4BFC-9B1F-3EBD076DDC56}" name="eN_12w_S6BH" dataDxfId="108" totalsRowDxfId="19"/>
+    <tableColumn id="34" xr3:uid="{25C94957-B8C6-4AC4-B9DF-294A491EE564}" name="eN_12w_S7BH" dataDxfId="107" totalsRowDxfId="18"/>
+    <tableColumn id="62" xr3:uid="{044CBD05-DA01-4F7B-B860-AD8857F36D0E}" name="Gebruik_hulpmiddelen" dataDxfId="106" totalsRowDxfId="17"/>
+    <tableColumn id="63" xr3:uid="{932F273E-728E-4DB5-97C6-F43125B0C99E}" name="Ontvangen_herstelzorg" dataDxfId="105" totalsRowDxfId="16"/>
+    <tableColumn id="64" xr3:uid="{15712BB4-B00C-4993-925D-DB93A1A59F42}" name="NRS_ADL" dataDxfId="104" totalsRowDxfId="15"/>
+    <tableColumn id="65" xr3:uid="{399762B2-A4B9-4B7A-A76A-390C362FD9CB}" name="Conditie" dataDxfId="103" totalsRowDxfId="14"/>
+    <tableColumn id="66" xr3:uid="{8CF660D3-8FBB-4A97-835F-8735F8DB9B70}" name="GPE" dataDxfId="102" totalsRowDxfId="13"/>
+    <tableColumn id="67" xr3:uid="{90FC3002-9DFD-421A-B044-562B8C439F3F}" name="CPaX" dataDxfId="101" totalsRowDxfId="12"/>
+    <tableColumn id="68" xr3:uid="{254491D0-5E02-4C84-BC5D-B4F36C7E727B}" name="HKK_Kg" dataDxfId="100" totalsRowDxfId="11"/>
+    <tableColumn id="69" xr3:uid="{CAF240A0-BF03-4A1D-AFF7-A3B26718ED9B}" name="HKK_%pred" dataDxfId="99" totalsRowDxfId="10"/>
+    <tableColumn id="70" xr3:uid="{012D01C5-F282-468B-B069-00536BFBEFB5}" name="Algehele_spierkracht" dataDxfId="98" totalsRowDxfId="9"/>
+    <tableColumn id="71" xr3:uid="{A8470AEF-2083-4A7C-A164-7D988ED6510E}" name="6MWD_m" dataDxfId="97" totalsRowDxfId="8"/>
+    <tableColumn id="72" xr3:uid="{AB66DBA3-AA3F-47A1-806F-180D4BC0F25A}" name="6MWD_%pred" dataDxfId="96" totalsRowDxfId="7"/>
+    <tableColumn id="73" xr3:uid="{74EBB3C1-8AB4-4D61-98C9-04B0A6E213D2}" name="Cardiorespiratoire_fitheid" dataDxfId="95" totalsRowDxfId="6"/>
+    <tableColumn id="36" xr3:uid="{D7F07C53-C0E5-4E9F-9DA4-9F71A2057E60}" name="RBK" dataDxfId="94" totalsRowDxfId="5"/>
+    <tableColumn id="80" xr3:uid="{F6673C9C-41E4-44AE-9A68-6884B7FBBD83}" name="MK" dataDxfId="93" totalsRowDxfId="4"/>
+    <tableColumn id="81" xr3:uid="{28741393-5F38-4A40-B2EF-7E96CAEAE2D9}" name="ROK" dataDxfId="92" totalsRowDxfId="3"/>
+    <tableColumn id="82" xr3:uid="{3515CF33-7185-4C49-84C5-2F142722BEF5}" name="LBK" dataDxfId="91" totalsRowDxfId="2"/>
+    <tableColumn id="83" xr3:uid="{98F08B84-C9AA-4EFB-9697-CE117C786770}" name="LOK" dataDxfId="90" totalsRowDxfId="1"/>
+    <tableColumn id="84" xr3:uid="{B411AE45-C2AD-450D-B10B-C89E4011E21C}" name="CTSS" dataDxfId="89" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(CA2:CE2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4581,7 +4553,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4953,17 +4925,15 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CF720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9585"/>
-      <selection activeCell="B2" sqref="B2:B339"/>
-      <selection pane="topRight" activeCell="CH26" sqref="CH26"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="6"/>
@@ -6401,7 +6371,7 @@
         <v>0.03</v>
       </c>
       <c r="CF7" s="6">
-        <f t="shared" ref="CF2:CF65" si="1">SUM(CA7:CE7)</f>
+        <f t="shared" ref="CF7:CF65" si="1">SUM(CA7:CE7)</f>
         <v>0</v>
       </c>
     </row>
@@ -33993,7 +33963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>370</v>
       </c>
@@ -34142,7 +34112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>374</v>
       </c>
@@ -34302,6 +34272,12 @@
       <c r="B167" s="8"/>
       <c r="C167" s="8">
         <v>0</v>
+      </c>
+      <c r="F167">
+        <v>193</v>
+      </c>
+      <c r="G167">
+        <v>95</v>
       </c>
       <c r="H167" s="43"/>
       <c r="Z167" s="10"/>
@@ -34372,6 +34348,12 @@
       <c r="C168" s="8">
         <v>0</v>
       </c>
+      <c r="F168">
+        <v>190</v>
+      </c>
+      <c r="G168">
+        <v>105</v>
+      </c>
       <c r="H168" s="43"/>
       <c r="Z168" s="10"/>
       <c r="AA168" s="10"/>
@@ -34441,6 +34423,12 @@
       <c r="C169" s="8">
         <v>0</v>
       </c>
+      <c r="F169">
+        <v>176</v>
+      </c>
+      <c r="G169">
+        <v>69</v>
+      </c>
       <c r="H169" s="43"/>
       <c r="Z169" s="10"/>
       <c r="AZ169" s="6">
@@ -34496,6 +34484,12 @@
       <c r="C170" s="8">
         <v>0</v>
       </c>
+      <c r="F170" s="6">
+        <v>174</v>
+      </c>
+      <c r="G170" s="6">
+        <v>88</v>
+      </c>
       <c r="H170" s="43"/>
       <c r="Z170" s="10"/>
       <c r="AZ170" s="6">
@@ -34551,6 +34545,12 @@
       <c r="C171" s="8">
         <v>0</v>
       </c>
+      <c r="F171" s="6">
+        <v>181</v>
+      </c>
+      <c r="G171" s="6">
+        <v>84</v>
+      </c>
       <c r="H171" s="43"/>
       <c r="Z171" s="10"/>
       <c r="AZ171" s="6">
@@ -34607,6 +34607,12 @@
         <v>0</v>
       </c>
       <c r="D172" s="36"/>
+      <c r="F172" s="6">
+        <v>161</v>
+      </c>
+      <c r="G172" s="6">
+        <v>86</v>
+      </c>
       <c r="H172" s="43"/>
       <c r="AZ172" s="6">
         <v>1</v>
@@ -34663,8 +34669,12 @@
       </c>
       <c r="D173" s="36"/>
       <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
+      <c r="F173" s="6">
+        <v>161</v>
+      </c>
+      <c r="G173" s="6">
+        <v>51</v>
+      </c>
       <c r="H173" s="45"/>
       <c r="I173" s="10"/>
       <c r="J173" s="10"/>
@@ -34777,8 +34787,12 @@
       </c>
       <c r="D174" s="36"/>
       <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
+      <c r="F174">
+        <v>164</v>
+      </c>
+      <c r="G174">
+        <v>70</v>
+      </c>
       <c r="H174" s="45"/>
       <c r="I174" s="10"/>
       <c r="J174" s="10"/>
@@ -34891,8 +34905,12 @@
       </c>
       <c r="D175" s="36"/>
       <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
+      <c r="F175">
+        <v>166</v>
+      </c>
+      <c r="G175">
+        <v>77</v>
+      </c>
       <c r="H175" s="45"/>
       <c r="I175" s="10"/>
       <c r="J175" s="10"/>
@@ -35005,8 +35023,12 @@
       </c>
       <c r="D176" s="36"/>
       <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
+      <c r="F176">
+        <v>198</v>
+      </c>
+      <c r="G176">
+        <v>115</v>
+      </c>
       <c r="H176" s="45"/>
       <c r="I176" s="10"/>
       <c r="J176" s="10"/>
@@ -35119,8 +35141,12 @@
       </c>
       <c r="D177" s="36"/>
       <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
+      <c r="F177">
+        <v>181</v>
+      </c>
+      <c r="G177">
+        <v>79</v>
+      </c>
       <c r="H177" s="45"/>
       <c r="I177" s="10"/>
       <c r="J177" s="10"/>
@@ -35233,8 +35259,12 @@
       </c>
       <c r="D178" s="36"/>
       <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
+      <c r="F178" s="6">
+        <v>189</v>
+      </c>
+      <c r="G178" s="6">
+        <v>100</v>
+      </c>
       <c r="H178" s="45"/>
       <c r="I178" s="10"/>
       <c r="J178" s="10"/>
@@ -35347,8 +35377,12 @@
       </c>
       <c r="D179" s="36"/>
       <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
+      <c r="F179">
+        <v>168</v>
+      </c>
+      <c r="G179">
+        <v>55</v>
+      </c>
       <c r="H179" s="45"/>
       <c r="I179" s="10"/>
       <c r="J179" s="10"/>
@@ -35461,8 +35495,12 @@
       </c>
       <c r="D180" s="36"/>
       <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
+      <c r="F180">
+        <v>169</v>
+      </c>
+      <c r="G180">
+        <v>83</v>
+      </c>
       <c r="H180" s="45"/>
       <c r="I180" s="10"/>
       <c r="J180" s="10"/>
@@ -35575,8 +35613,12 @@
       </c>
       <c r="D181" s="36"/>
       <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
+      <c r="F181">
+        <v>172</v>
+      </c>
+      <c r="G181">
+        <v>82</v>
+      </c>
       <c r="H181" s="45"/>
       <c r="I181" s="10"/>
       <c r="J181" s="10"/>
@@ -35689,8 +35731,12 @@
       </c>
       <c r="D182" s="36"/>
       <c r="E182" s="10"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
+      <c r="F182" s="6">
+        <v>172</v>
+      </c>
+      <c r="G182" s="6">
+        <v>93</v>
+      </c>
       <c r="H182" s="45"/>
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
@@ -35803,8 +35849,12 @@
       </c>
       <c r="D183" s="36"/>
       <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
+      <c r="F183">
+        <v>175</v>
+      </c>
+      <c r="G183">
+        <v>106</v>
+      </c>
       <c r="H183" s="45"/>
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
@@ -35917,8 +35967,12 @@
       </c>
       <c r="D184" s="36"/>
       <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
+      <c r="F184">
+        <v>166</v>
+      </c>
+      <c r="G184">
+        <v>83</v>
+      </c>
       <c r="H184" s="45"/>
       <c r="I184" s="10"/>
       <c r="J184" s="10"/>
@@ -36031,8 +36085,12 @@
       </c>
       <c r="D185" s="36"/>
       <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
+      <c r="F185">
+        <v>175</v>
+      </c>
+      <c r="G185">
+        <v>106</v>
+      </c>
       <c r="H185" s="45"/>
       <c r="I185" s="10"/>
       <c r="J185" s="10"/>
@@ -36145,8 +36203,12 @@
       </c>
       <c r="D186" s="36"/>
       <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
+      <c r="F186" s="6">
+        <v>166</v>
+      </c>
+      <c r="G186" s="6">
+        <v>83</v>
+      </c>
       <c r="H186" s="45"/>
       <c r="I186" s="10"/>
       <c r="J186" s="10"/>
@@ -36259,8 +36321,12 @@
       </c>
       <c r="D187" s="36"/>
       <c r="E187" s="10"/>
-      <c r="F187" s="10"/>
-      <c r="G187" s="10"/>
+      <c r="F187">
+        <v>170</v>
+      </c>
+      <c r="G187">
+        <v>69</v>
+      </c>
       <c r="H187" s="45"/>
       <c r="I187" s="10"/>
       <c r="J187" s="10"/>
@@ -36373,8 +36439,12 @@
       </c>
       <c r="D188" s="36"/>
       <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
+      <c r="F188">
+        <v>185</v>
+      </c>
+      <c r="G188">
+        <v>110</v>
+      </c>
       <c r="H188" s="45"/>
       <c r="I188" s="10"/>
       <c r="J188" s="10"/>
@@ -36487,8 +36557,12 @@
       </c>
       <c r="D189" s="36"/>
       <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
+      <c r="F189">
+        <v>180</v>
+      </c>
+      <c r="G189">
+        <v>95</v>
+      </c>
       <c r="H189" s="45"/>
       <c r="I189" s="10"/>
       <c r="J189" s="10"/>
@@ -36601,8 +36675,12 @@
       </c>
       <c r="D190" s="36"/>
       <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
+      <c r="F190">
+        <v>179</v>
+      </c>
+      <c r="G190">
+        <v>88</v>
+      </c>
       <c r="H190" s="45"/>
       <c r="I190" s="10"/>
       <c r="J190" s="10"/>
@@ -36715,8 +36793,12 @@
       </c>
       <c r="D191" s="36"/>
       <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="10"/>
+      <c r="F191">
+        <v>173</v>
+      </c>
+      <c r="G191">
+        <v>101</v>
+      </c>
       <c r="H191" s="45"/>
       <c r="I191" s="10"/>
       <c r="J191" s="10"/>
@@ -36829,8 +36911,12 @@
       </c>
       <c r="D192" s="36"/>
       <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
+      <c r="F192">
+        <v>165</v>
+      </c>
+      <c r="G192">
+        <v>80</v>
+      </c>
       <c r="H192" s="45"/>
       <c r="I192" s="10"/>
       <c r="J192" s="10"/>
@@ -36943,8 +37029,12 @@
       </c>
       <c r="D193" s="36"/>
       <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
+      <c r="F193">
+        <v>161</v>
+      </c>
+      <c r="G193">
+        <v>84</v>
+      </c>
       <c r="H193" s="45"/>
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
@@ -37057,8 +37147,12 @@
       </c>
       <c r="D194" s="36"/>
       <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
+      <c r="F194">
+        <v>173</v>
+      </c>
+      <c r="G194">
+        <v>101</v>
+      </c>
       <c r="H194" s="45"/>
       <c r="I194" s="10"/>
       <c r="J194" s="10"/>
@@ -37171,8 +37265,12 @@
       </c>
       <c r="D195" s="36"/>
       <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
+      <c r="F195">
+        <v>149</v>
+      </c>
+      <c r="G195">
+        <v>77</v>
+      </c>
       <c r="H195" s="45"/>
       <c r="I195" s="10"/>
       <c r="J195" s="10"/>
@@ -37285,8 +37383,12 @@
       </c>
       <c r="D196" s="36"/>
       <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
+      <c r="F196" s="6">
+        <v>180</v>
+      </c>
+      <c r="G196" s="6">
+        <v>86</v>
+      </c>
       <c r="H196" s="45"/>
       <c r="I196" s="10"/>
       <c r="J196" s="10"/>
@@ -37399,8 +37501,12 @@
       </c>
       <c r="D197" s="36"/>
       <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
+      <c r="F197">
+        <v>173</v>
+      </c>
+      <c r="G197">
+        <v>100</v>
+      </c>
       <c r="H197" s="45"/>
       <c r="I197" s="10"/>
       <c r="J197" s="10"/>
@@ -37513,8 +37619,12 @@
       </c>
       <c r="D198" s="36"/>
       <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
+      <c r="F198">
+        <v>178</v>
+      </c>
+      <c r="G198">
+        <v>70</v>
+      </c>
       <c r="H198" s="45"/>
       <c r="I198" s="10"/>
       <c r="J198" s="10"/>
@@ -37627,8 +37737,12 @@
       </c>
       <c r="D199" s="36"/>
       <c r="E199" s="10"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
+      <c r="F199">
+        <v>182</v>
+      </c>
+      <c r="G199">
+        <v>137</v>
+      </c>
       <c r="H199" s="45"/>
       <c r="I199" s="10"/>
       <c r="J199" s="10"/>
@@ -37741,8 +37855,12 @@
       </c>
       <c r="D200" s="36"/>
       <c r="E200" s="10"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
+      <c r="F200" s="6">
+        <v>167</v>
+      </c>
+      <c r="G200" s="6">
+        <v>71</v>
+      </c>
       <c r="H200" s="45"/>
       <c r="I200" s="10"/>
       <c r="J200" s="10"/>
@@ -37855,8 +37973,12 @@
       </c>
       <c r="D201" s="36"/>
       <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
+      <c r="F201" s="6">
+        <v>172</v>
+      </c>
+      <c r="G201" s="6">
+        <v>95</v>
+      </c>
       <c r="H201" s="45"/>
       <c r="I201" s="10"/>
       <c r="J201" s="10"/>
@@ -37969,8 +38091,12 @@
       </c>
       <c r="D202" s="36"/>
       <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
+      <c r="F202">
+        <v>181</v>
+      </c>
+      <c r="G202">
+        <v>108</v>
+      </c>
       <c r="H202" s="45"/>
       <c r="I202" s="10"/>
       <c r="J202" s="10"/>
@@ -38083,8 +38209,12 @@
       </c>
       <c r="D203" s="36"/>
       <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
+      <c r="F203">
+        <v>165</v>
+      </c>
+      <c r="G203">
+        <v>73</v>
+      </c>
       <c r="H203" s="45"/>
       <c r="I203" s="10"/>
       <c r="J203" s="10"/>
@@ -38197,8 +38327,12 @@
       </c>
       <c r="D204" s="36"/>
       <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
+      <c r="F204" s="6">
+        <v>164</v>
+      </c>
+      <c r="G204" s="6">
+        <v>66</v>
+      </c>
       <c r="H204" s="45"/>
       <c r="I204" s="10"/>
       <c r="J204" s="10"/>
@@ -38311,8 +38445,12 @@
       </c>
       <c r="D205" s="36"/>
       <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
+      <c r="F205">
+        <v>186</v>
+      </c>
+      <c r="G205">
+        <v>103</v>
+      </c>
       <c r="H205" s="45"/>
       <c r="I205" s="10"/>
       <c r="J205" s="10"/>
@@ -38425,8 +38563,12 @@
       </c>
       <c r="D206" s="36"/>
       <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
+      <c r="F206">
+        <v>182</v>
+      </c>
+      <c r="G206">
+        <v>86</v>
+      </c>
       <c r="H206" s="45"/>
       <c r="I206" s="10"/>
       <c r="J206" s="10"/>
@@ -38539,8 +38681,12 @@
       </c>
       <c r="D207" s="36"/>
       <c r="E207" s="10"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
+      <c r="F207">
+        <v>166</v>
+      </c>
+      <c r="G207">
+        <v>58</v>
+      </c>
       <c r="H207" s="45"/>
       <c r="I207" s="10"/>
       <c r="J207" s="10"/>
@@ -38653,8 +38799,12 @@
       </c>
       <c r="D208" s="36"/>
       <c r="E208" s="10"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
+      <c r="F208" s="6">
+        <v>155</v>
+      </c>
+      <c r="G208" s="6">
+        <v>71</v>
+      </c>
       <c r="H208" s="45"/>
       <c r="I208" s="10"/>
       <c r="J208" s="10"/>
@@ -38767,8 +38917,12 @@
       </c>
       <c r="D209" s="36"/>
       <c r="E209" s="10"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
+      <c r="F209" s="6">
+        <v>177</v>
+      </c>
+      <c r="G209" s="6">
+        <v>68</v>
+      </c>
       <c r="H209" s="45"/>
       <c r="I209" s="10"/>
       <c r="J209" s="10"/>
@@ -38881,8 +39035,12 @@
       </c>
       <c r="D210" s="36"/>
       <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
+      <c r="F210" s="6">
+        <v>169</v>
+      </c>
+      <c r="G210" s="6">
+        <v>102</v>
+      </c>
       <c r="H210" s="45"/>
       <c r="I210" s="10"/>
       <c r="J210" s="10"/>
@@ -38995,8 +39153,12 @@
       </c>
       <c r="D211" s="36"/>
       <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
+      <c r="F211" s="6">
+        <v>181</v>
+      </c>
+      <c r="G211" s="6">
+        <v>92</v>
+      </c>
       <c r="H211" s="45"/>
       <c r="I211" s="10"/>
       <c r="J211" s="10"/>
@@ -39109,8 +39271,12 @@
       </c>
       <c r="D212" s="36"/>
       <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
+      <c r="F212" s="6">
+        <v>165</v>
+      </c>
+      <c r="G212" s="6">
+        <v>95</v>
+      </c>
       <c r="H212" s="45"/>
       <c r="I212" s="10"/>
       <c r="J212" s="10"/>
@@ -39223,8 +39389,12 @@
       </c>
       <c r="D213" s="36"/>
       <c r="E213" s="10"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
+      <c r="F213" s="6">
+        <v>172</v>
+      </c>
+      <c r="G213" s="6">
+        <v>88</v>
+      </c>
       <c r="H213" s="45"/>
       <c r="I213" s="10"/>
       <c r="J213" s="10"/>
@@ -39337,8 +39507,12 @@
       </c>
       <c r="D214" s="36"/>
       <c r="E214" s="10"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
+      <c r="F214" s="6">
+        <v>159</v>
+      </c>
+      <c r="G214" s="6">
+        <v>60</v>
+      </c>
       <c r="H214" s="45"/>
       <c r="I214" s="10"/>
       <c r="J214" s="10"/>
@@ -39451,8 +39625,12 @@
       </c>
       <c r="D215" s="36"/>
       <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
+      <c r="F215">
+        <v>187</v>
+      </c>
+      <c r="G215">
+        <v>88</v>
+      </c>
       <c r="H215" s="45"/>
       <c r="I215" s="10"/>
       <c r="J215" s="10"/>
@@ -39565,8 +39743,12 @@
       </c>
       <c r="D216" s="36"/>
       <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
+      <c r="F216">
+        <v>176</v>
+      </c>
+      <c r="G216">
+        <v>110</v>
+      </c>
       <c r="H216" s="45"/>
       <c r="I216" s="10"/>
       <c r="J216" s="10"/>
@@ -39679,8 +39861,12 @@
       </c>
       <c r="D217" s="36"/>
       <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
+      <c r="F217">
+        <v>178</v>
+      </c>
+      <c r="G217">
+        <v>81</v>
+      </c>
       <c r="H217" s="45"/>
       <c r="I217" s="10"/>
       <c r="J217" s="10"/>
@@ -39793,8 +39979,12 @@
       </c>
       <c r="D218" s="36"/>
       <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
+      <c r="F218">
+        <v>166</v>
+      </c>
+      <c r="G218">
+        <v>95</v>
+      </c>
       <c r="H218" s="45"/>
       <c r="I218" s="10"/>
       <c r="J218" s="10"/>
@@ -39907,8 +40097,12 @@
       </c>
       <c r="D219" s="36"/>
       <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
+      <c r="F219">
+        <v>177</v>
+      </c>
+      <c r="G219">
+        <v>86.4</v>
+      </c>
       <c r="H219" s="45"/>
       <c r="I219" s="10"/>
       <c r="J219" s="10"/>
@@ -40021,8 +40215,12 @@
       </c>
       <c r="D220" s="36"/>
       <c r="E220" s="10"/>
-      <c r="F220" s="10"/>
-      <c r="G220" s="10"/>
+      <c r="F220" s="6">
+        <v>184</v>
+      </c>
+      <c r="G220" s="6">
+        <v>80</v>
+      </c>
       <c r="H220" s="45"/>
       <c r="I220" s="10"/>
       <c r="J220" s="10"/>
@@ -40135,8 +40333,12 @@
       </c>
       <c r="D221" s="36"/>
       <c r="E221" s="10"/>
-      <c r="F221" s="10"/>
-      <c r="G221" s="10"/>
+      <c r="F221" s="6">
+        <v>173</v>
+      </c>
+      <c r="G221" s="6">
+        <v>69</v>
+      </c>
       <c r="H221" s="45"/>
       <c r="I221" s="10"/>
       <c r="J221" s="10"/>
@@ -40249,8 +40451,12 @@
       </c>
       <c r="D222" s="36"/>
       <c r="E222" s="10"/>
-      <c r="F222" s="10"/>
-      <c r="G222" s="10"/>
+      <c r="F222" s="6">
+        <v>166</v>
+      </c>
+      <c r="G222" s="6">
+        <v>74</v>
+      </c>
       <c r="H222" s="45"/>
       <c r="I222" s="10"/>
       <c r="J222" s="10"/>
@@ -40363,8 +40569,12 @@
       </c>
       <c r="D223" s="36"/>
       <c r="E223" s="10"/>
-      <c r="F223" s="10"/>
-      <c r="G223" s="10"/>
+      <c r="F223" s="6">
+        <v>181</v>
+      </c>
+      <c r="G223" s="6">
+        <v>96</v>
+      </c>
       <c r="H223" s="45"/>
       <c r="I223" s="10"/>
       <c r="J223" s="10"/>
@@ -40477,8 +40687,12 @@
       </c>
       <c r="D224" s="36"/>
       <c r="E224" s="10"/>
-      <c r="F224" s="10"/>
-      <c r="G224" s="10"/>
+      <c r="F224" s="6">
+        <v>185</v>
+      </c>
+      <c r="G224" s="6">
+        <v>82</v>
+      </c>
       <c r="H224" s="45"/>
       <c r="I224" s="10"/>
       <c r="J224" s="10"/>
@@ -40591,8 +40805,12 @@
       </c>
       <c r="D225" s="36"/>
       <c r="E225" s="10"/>
-      <c r="F225" s="10"/>
-      <c r="G225" s="10"/>
+      <c r="F225" s="6">
+        <v>181</v>
+      </c>
+      <c r="G225" s="6">
+        <v>96</v>
+      </c>
       <c r="H225" s="45"/>
       <c r="I225" s="10"/>
       <c r="J225" s="10"/>
@@ -40705,8 +40923,12 @@
       </c>
       <c r="D226" s="36"/>
       <c r="E226" s="10"/>
-      <c r="F226" s="10"/>
-      <c r="G226" s="10"/>
+      <c r="F226" s="6">
+        <v>178</v>
+      </c>
+      <c r="G226" s="6">
+        <v>99</v>
+      </c>
       <c r="H226" s="45"/>
       <c r="I226" s="10"/>
       <c r="J226" s="10"/>
@@ -40819,8 +41041,12 @@
       </c>
       <c r="D227" s="36"/>
       <c r="E227" s="10"/>
-      <c r="F227" s="10"/>
-      <c r="G227" s="10"/>
+      <c r="F227" s="6">
+        <v>183</v>
+      </c>
+      <c r="G227" s="6">
+        <v>81</v>
+      </c>
       <c r="H227" s="45"/>
       <c r="I227" s="10"/>
       <c r="J227" s="10"/>
@@ -40933,8 +41159,12 @@
       </c>
       <c r="D228" s="36"/>
       <c r="E228" s="10"/>
-      <c r="F228" s="10"/>
-      <c r="G228" s="10"/>
+      <c r="F228" s="6">
+        <v>180</v>
+      </c>
+      <c r="G228" s="6">
+        <v>82</v>
+      </c>
       <c r="H228" s="45"/>
       <c r="I228" s="10"/>
       <c r="J228" s="10"/>
@@ -41047,8 +41277,12 @@
       </c>
       <c r="D229" s="36"/>
       <c r="E229" s="10"/>
-      <c r="F229" s="10"/>
-      <c r="G229" s="10"/>
+      <c r="F229" s="6">
+        <v>173</v>
+      </c>
+      <c r="G229" s="6">
+        <v>71</v>
+      </c>
       <c r="H229" s="45"/>
       <c r="I229" s="10"/>
       <c r="J229" s="10"/>
@@ -41161,8 +41395,12 @@
       </c>
       <c r="D230" s="36"/>
       <c r="E230" s="10"/>
-      <c r="F230" s="10"/>
-      <c r="G230" s="10"/>
+      <c r="F230" s="6">
+        <v>175</v>
+      </c>
+      <c r="G230" s="6">
+        <v>82</v>
+      </c>
       <c r="H230" s="45"/>
       <c r="I230" s="10"/>
       <c r="J230" s="10"/>
@@ -41275,8 +41513,12 @@
       </c>
       <c r="D231" s="36"/>
       <c r="E231" s="10"/>
-      <c r="F231" s="10"/>
-      <c r="G231" s="10"/>
+      <c r="F231" s="6">
+        <v>174</v>
+      </c>
+      <c r="G231" s="6">
+        <v>81</v>
+      </c>
       <c r="H231" s="45"/>
       <c r="I231" s="10"/>
       <c r="J231" s="10"/>
@@ -41389,8 +41631,12 @@
       </c>
       <c r="D232" s="36"/>
       <c r="E232" s="10"/>
-      <c r="F232" s="10"/>
-      <c r="G232" s="10"/>
+      <c r="F232" s="6">
+        <v>179</v>
+      </c>
+      <c r="G232" s="6">
+        <v>83</v>
+      </c>
       <c r="H232" s="45"/>
       <c r="I232" s="10"/>
       <c r="J232" s="10"/>
@@ -41503,8 +41749,12 @@
       </c>
       <c r="D233" s="36"/>
       <c r="E233" s="10"/>
-      <c r="F233" s="10"/>
-      <c r="G233" s="10"/>
+      <c r="F233" s="6">
+        <v>168</v>
+      </c>
+      <c r="G233" s="6">
+        <v>59</v>
+      </c>
       <c r="H233" s="45"/>
       <c r="I233" s="10"/>
       <c r="J233" s="10"/>
@@ -41617,8 +41867,12 @@
       </c>
       <c r="D234" s="36"/>
       <c r="E234" s="10"/>
-      <c r="F234" s="10"/>
-      <c r="G234" s="10"/>
+      <c r="F234" s="6">
+        <v>179</v>
+      </c>
+      <c r="G234" s="6">
+        <v>131.19999999999999</v>
+      </c>
       <c r="H234" s="45"/>
       <c r="I234" s="10"/>
       <c r="J234" s="10"/>
@@ -41731,8 +41985,12 @@
       </c>
       <c r="D235" s="36"/>
       <c r="E235" s="10"/>
-      <c r="F235" s="10"/>
-      <c r="G235" s="10"/>
+      <c r="F235" s="6">
+        <v>155</v>
+      </c>
+      <c r="G235" s="6">
+        <v>64</v>
+      </c>
       <c r="H235" s="45"/>
       <c r="I235" s="10"/>
       <c r="J235" s="10"/>
@@ -41845,8 +42103,12 @@
       </c>
       <c r="D236" s="36"/>
       <c r="E236" s="10"/>
-      <c r="F236" s="10"/>
-      <c r="G236" s="10"/>
+      <c r="F236" s="6">
+        <v>174</v>
+      </c>
+      <c r="G236" s="6">
+        <v>75</v>
+      </c>
       <c r="H236" s="45"/>
       <c r="I236" s="10"/>
       <c r="J236" s="10"/>
@@ -41959,8 +42221,12 @@
       </c>
       <c r="D237" s="36"/>
       <c r="E237" s="10"/>
-      <c r="F237" s="10"/>
-      <c r="G237" s="10"/>
+      <c r="F237" s="6">
+        <v>176</v>
+      </c>
+      <c r="G237" s="6">
+        <v>95</v>
+      </c>
       <c r="H237" s="45"/>
       <c r="I237" s="10"/>
       <c r="J237" s="10"/>
@@ -42073,8 +42339,12 @@
       </c>
       <c r="D238" s="36"/>
       <c r="E238" s="10"/>
-      <c r="F238" s="10"/>
-      <c r="G238" s="10"/>
+      <c r="F238" s="6">
+        <v>163</v>
+      </c>
+      <c r="G238" s="6">
+        <v>88</v>
+      </c>
       <c r="H238" s="45"/>
       <c r="I238" s="10"/>
       <c r="J238" s="10"/>
@@ -42187,8 +42457,12 @@
       </c>
       <c r="D239" s="36"/>
       <c r="E239" s="10"/>
-      <c r="F239" s="10"/>
-      <c r="G239" s="10"/>
+      <c r="F239" s="6">
+        <v>175</v>
+      </c>
+      <c r="G239" s="6">
+        <v>87</v>
+      </c>
       <c r="H239" s="45"/>
       <c r="I239" s="10"/>
       <c r="J239" s="10"/>
@@ -42301,8 +42575,12 @@
       </c>
       <c r="D240" s="36"/>
       <c r="E240" s="10"/>
-      <c r="F240" s="10"/>
-      <c r="G240" s="10"/>
+      <c r="F240" s="6">
+        <v>169</v>
+      </c>
+      <c r="G240" s="6">
+        <v>80</v>
+      </c>
       <c r="H240" s="45"/>
       <c r="I240" s="10"/>
       <c r="J240" s="10"/>
@@ -42415,8 +42693,12 @@
       </c>
       <c r="D241" s="36"/>
       <c r="E241" s="10"/>
-      <c r="F241" s="10"/>
-      <c r="G241" s="10"/>
+      <c r="F241" s="6">
+        <v>168</v>
+      </c>
+      <c r="G241" s="6">
+        <v>70</v>
+      </c>
       <c r="H241" s="45"/>
       <c r="I241" s="10"/>
       <c r="J241" s="10"/>
@@ -42529,8 +42811,12 @@
       </c>
       <c r="D242" s="36"/>
       <c r="E242" s="10"/>
-      <c r="F242" s="10"/>
-      <c r="G242" s="10"/>
+      <c r="F242" s="6">
+        <v>150</v>
+      </c>
+      <c r="G242" s="6">
+        <v>76</v>
+      </c>
       <c r="H242" s="45"/>
       <c r="I242" s="10"/>
       <c r="J242" s="10"/>
@@ -42643,8 +42929,12 @@
       </c>
       <c r="D243" s="36"/>
       <c r="E243" s="10"/>
-      <c r="F243" s="10"/>
-      <c r="G243" s="10"/>
+      <c r="F243" s="6">
+        <v>167</v>
+      </c>
+      <c r="G243" s="6">
+        <v>105</v>
+      </c>
       <c r="H243" s="45"/>
       <c r="I243" s="10"/>
       <c r="J243" s="10"/>
@@ -42757,8 +43047,12 @@
       </c>
       <c r="D244" s="36"/>
       <c r="E244" s="10"/>
-      <c r="F244" s="10"/>
-      <c r="G244" s="10"/>
+      <c r="F244" s="6">
+        <v>159</v>
+      </c>
+      <c r="G244" s="6">
+        <v>122</v>
+      </c>
       <c r="H244" s="45"/>
       <c r="I244" s="10"/>
       <c r="J244" s="10"/>
@@ -42871,8 +43165,12 @@
       </c>
       <c r="D245" s="36"/>
       <c r="E245" s="10"/>
-      <c r="F245" s="10"/>
-      <c r="G245" s="10"/>
+      <c r="F245" s="6">
+        <v>197</v>
+      </c>
+      <c r="G245" s="6">
+        <v>100</v>
+      </c>
       <c r="H245" s="45"/>
       <c r="I245" s="10"/>
       <c r="J245" s="10"/>
@@ -42985,8 +43283,12 @@
       </c>
       <c r="D246" s="36"/>
       <c r="E246" s="10"/>
-      <c r="F246" s="10"/>
-      <c r="G246" s="10"/>
+      <c r="F246" s="6">
+        <v>192</v>
+      </c>
+      <c r="G246" s="6">
+        <v>103</v>
+      </c>
       <c r="H246" s="45"/>
       <c r="I246" s="10"/>
       <c r="J246" s="10"/>
@@ -43099,8 +43401,12 @@
       </c>
       <c r="D247" s="36"/>
       <c r="E247" s="10"/>
-      <c r="F247" s="10"/>
-      <c r="G247" s="10"/>
+      <c r="F247" s="6">
+        <v>165</v>
+      </c>
+      <c r="G247" s="6">
+        <v>90</v>
+      </c>
       <c r="H247" s="45"/>
       <c r="I247" s="10"/>
       <c r="J247" s="10"/>
@@ -43213,8 +43519,12 @@
       </c>
       <c r="D248" s="36"/>
       <c r="E248" s="10"/>
-      <c r="F248" s="10"/>
-      <c r="G248" s="10"/>
+      <c r="F248" s="6">
+        <v>169</v>
+      </c>
+      <c r="G248" s="6">
+        <v>72</v>
+      </c>
       <c r="H248" s="45"/>
       <c r="I248" s="10"/>
       <c r="J248" s="10"/>
@@ -43327,8 +43637,12 @@
       </c>
       <c r="D249" s="36"/>
       <c r="E249" s="10"/>
-      <c r="F249" s="10"/>
-      <c r="G249" s="10"/>
+      <c r="F249" s="6">
+        <v>169</v>
+      </c>
+      <c r="G249" s="6">
+        <v>100</v>
+      </c>
       <c r="H249" s="45"/>
       <c r="I249" s="10"/>
       <c r="J249" s="10"/>
@@ -43441,8 +43755,12 @@
       </c>
       <c r="D250" s="36"/>
       <c r="E250" s="10"/>
-      <c r="F250" s="10"/>
-      <c r="G250" s="10"/>
+      <c r="F250" s="6">
+        <v>187</v>
+      </c>
+      <c r="G250" s="6">
+        <v>91</v>
+      </c>
       <c r="H250" s="45"/>
       <c r="I250" s="10"/>
       <c r="J250" s="10"/>
@@ -43555,8 +43873,12 @@
       </c>
       <c r="D251" s="36"/>
       <c r="E251" s="10"/>
-      <c r="F251" s="10"/>
-      <c r="G251" s="10"/>
+      <c r="F251" s="6">
+        <v>160</v>
+      </c>
+      <c r="G251" s="6">
+        <v>108</v>
+      </c>
       <c r="H251" s="45"/>
       <c r="I251" s="10"/>
       <c r="J251" s="10"/>
@@ -43669,8 +43991,12 @@
       </c>
       <c r="D252" s="36"/>
       <c r="E252" s="10"/>
-      <c r="F252" s="10"/>
-      <c r="G252" s="10"/>
+      <c r="F252" s="6">
+        <v>167</v>
+      </c>
+      <c r="G252" s="6">
+        <v>88</v>
+      </c>
       <c r="H252" s="45"/>
       <c r="I252" s="10"/>
       <c r="J252" s="10"/>
@@ -43783,8 +44109,12 @@
       </c>
       <c r="D253" s="36"/>
       <c r="E253" s="10"/>
-      <c r="F253" s="10"/>
-      <c r="G253" s="10"/>
+      <c r="F253" s="6">
+        <v>164</v>
+      </c>
+      <c r="G253" s="6">
+        <v>82</v>
+      </c>
       <c r="H253" s="45"/>
       <c r="I253" s="10"/>
       <c r="J253" s="10"/>
@@ -43897,8 +44227,12 @@
       </c>
       <c r="D254" s="36"/>
       <c r="E254" s="10"/>
-      <c r="F254" s="10"/>
-      <c r="G254" s="10"/>
+      <c r="F254" s="6">
+        <v>169</v>
+      </c>
+      <c r="G254" s="6">
+        <v>75</v>
+      </c>
       <c r="H254" s="45"/>
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
@@ -44011,8 +44345,12 @@
       </c>
       <c r="D255" s="36"/>
       <c r="E255" s="10"/>
-      <c r="F255" s="10"/>
-      <c r="G255" s="10"/>
+      <c r="F255" s="6">
+        <v>162</v>
+      </c>
+      <c r="G255" s="6">
+        <v>68</v>
+      </c>
       <c r="H255" s="45"/>
       <c r="I255" s="10"/>
       <c r="J255" s="10"/>
@@ -44125,8 +44463,12 @@
       </c>
       <c r="D256" s="36"/>
       <c r="E256" s="10"/>
-      <c r="F256" s="10"/>
-      <c r="G256" s="10"/>
+      <c r="F256" s="6">
+        <v>185</v>
+      </c>
+      <c r="G256" s="6">
+        <v>137</v>
+      </c>
       <c r="H256" s="45"/>
       <c r="I256" s="10"/>
       <c r="J256" s="10"/>
@@ -44239,8 +44581,12 @@
       </c>
       <c r="D257" s="36"/>
       <c r="E257" s="10"/>
-      <c r="F257" s="10"/>
-      <c r="G257" s="10"/>
+      <c r="F257" s="6">
+        <v>166</v>
+      </c>
+      <c r="G257" s="6">
+        <v>59</v>
+      </c>
       <c r="H257" s="45"/>
       <c r="I257" s="10"/>
       <c r="J257" s="10"/>
@@ -44353,8 +44699,12 @@
       </c>
       <c r="D258" s="36"/>
       <c r="E258" s="10"/>
-      <c r="F258" s="10"/>
-      <c r="G258" s="10"/>
+      <c r="F258" s="6">
+        <v>185</v>
+      </c>
+      <c r="G258" s="6">
+        <v>115</v>
+      </c>
       <c r="H258" s="45"/>
       <c r="I258" s="10"/>
       <c r="J258" s="10"/>
@@ -44467,8 +44817,12 @@
       </c>
       <c r="D259" s="36"/>
       <c r="E259" s="10"/>
-      <c r="F259" s="10"/>
-      <c r="G259" s="10"/>
+      <c r="F259" s="6">
+        <v>191</v>
+      </c>
+      <c r="G259" s="6">
+        <v>108</v>
+      </c>
       <c r="H259" s="45"/>
       <c r="I259" s="10"/>
       <c r="J259" s="10"/>
@@ -44581,8 +44935,12 @@
       </c>
       <c r="D260" s="36"/>
       <c r="E260" s="10"/>
-      <c r="F260" s="10"/>
-      <c r="G260" s="10"/>
+      <c r="F260" s="6">
+        <v>175</v>
+      </c>
+      <c r="G260" s="6">
+        <v>91</v>
+      </c>
       <c r="H260" s="45"/>
       <c r="I260" s="10"/>
       <c r="J260" s="10"/>
@@ -44695,8 +45053,12 @@
       </c>
       <c r="D261" s="36"/>
       <c r="E261" s="10"/>
-      <c r="F261" s="10"/>
-      <c r="G261" s="10"/>
+      <c r="F261" s="6">
+        <v>171</v>
+      </c>
+      <c r="G261" s="6">
+        <v>91</v>
+      </c>
       <c r="H261" s="45"/>
       <c r="I261" s="10"/>
       <c r="J261" s="10"/>
@@ -44809,8 +45171,12 @@
       </c>
       <c r="D262" s="36"/>
       <c r="E262" s="10"/>
-      <c r="F262" s="10"/>
-      <c r="G262" s="10"/>
+      <c r="F262" s="6">
+        <v>193</v>
+      </c>
+      <c r="G262" s="6">
+        <v>110</v>
+      </c>
       <c r="H262" s="45"/>
       <c r="I262" s="10"/>
       <c r="J262" s="10"/>
@@ -44923,8 +45289,12 @@
       </c>
       <c r="D263" s="36"/>
       <c r="E263" s="10"/>
-      <c r="F263" s="10"/>
-      <c r="G263" s="10"/>
+      <c r="F263" s="6">
+        <v>171</v>
+      </c>
+      <c r="G263" s="6">
+        <v>97</v>
+      </c>
       <c r="H263" s="45"/>
       <c r="I263" s="10"/>
       <c r="J263" s="10"/>
@@ -45037,8 +45407,12 @@
       </c>
       <c r="D264" s="36"/>
       <c r="E264" s="10"/>
-      <c r="F264" s="10"/>
-      <c r="G264" s="10"/>
+      <c r="F264" s="6">
+        <v>173</v>
+      </c>
+      <c r="G264" s="6">
+        <v>120</v>
+      </c>
       <c r="H264" s="45"/>
       <c r="I264" s="10"/>
       <c r="J264" s="10"/>
@@ -45151,8 +45525,12 @@
       </c>
       <c r="D265" s="36"/>
       <c r="E265" s="10"/>
-      <c r="F265" s="10"/>
-      <c r="G265" s="10"/>
+      <c r="F265" s="6">
+        <v>181</v>
+      </c>
+      <c r="G265" s="6">
+        <v>99</v>
+      </c>
       <c r="H265" s="45"/>
       <c r="I265" s="10"/>
       <c r="J265" s="10"/>
@@ -45265,8 +45643,12 @@
       </c>
       <c r="D266" s="36"/>
       <c r="E266" s="10"/>
-      <c r="F266" s="10"/>
-      <c r="G266" s="10"/>
+      <c r="F266" s="6">
+        <v>167</v>
+      </c>
+      <c r="G266" s="6">
+        <v>158</v>
+      </c>
       <c r="H266" s="45"/>
       <c r="I266" s="10"/>
       <c r="J266" s="10"/>
@@ -45379,8 +45761,12 @@
       </c>
       <c r="D267" s="36"/>
       <c r="E267" s="10"/>
-      <c r="F267" s="10"/>
-      <c r="G267" s="10"/>
+      <c r="F267" s="6">
+        <v>163</v>
+      </c>
+      <c r="G267" s="6">
+        <v>65</v>
+      </c>
       <c r="H267" s="45"/>
       <c r="I267" s="10"/>
       <c r="J267" s="10"/>
@@ -45493,8 +45879,12 @@
       </c>
       <c r="D268" s="36"/>
       <c r="E268" s="10"/>
-      <c r="F268" s="10"/>
-      <c r="G268" s="10"/>
+      <c r="F268" s="6">
+        <v>163</v>
+      </c>
+      <c r="G268" s="6">
+        <v>105</v>
+      </c>
       <c r="H268" s="45"/>
       <c r="I268" s="10"/>
       <c r="J268" s="10"/>
@@ -45607,8 +45997,12 @@
       </c>
       <c r="D269" s="36"/>
       <c r="E269" s="10"/>
-      <c r="F269" s="10"/>
-      <c r="G269" s="10"/>
+      <c r="F269" s="6">
+        <v>155</v>
+      </c>
+      <c r="G269" s="6">
+        <v>98</v>
+      </c>
       <c r="H269" s="45"/>
       <c r="I269" s="10"/>
       <c r="J269" s="10"/>
@@ -45721,8 +46115,12 @@
       </c>
       <c r="D270" s="36"/>
       <c r="E270" s="10"/>
-      <c r="F270" s="10"/>
-      <c r="G270" s="10"/>
+      <c r="F270" s="6">
+        <v>158</v>
+      </c>
+      <c r="G270" s="6">
+        <v>78</v>
+      </c>
       <c r="H270" s="45"/>
       <c r="I270" s="10"/>
       <c r="J270" s="10"/>
@@ -45835,8 +46233,12 @@
       </c>
       <c r="D271" s="36"/>
       <c r="E271" s="10"/>
-      <c r="F271" s="10"/>
-      <c r="G271" s="10"/>
+      <c r="F271" s="6">
+        <v>171</v>
+      </c>
+      <c r="G271" s="6">
+        <v>87</v>
+      </c>
       <c r="H271" s="45"/>
       <c r="I271" s="10"/>
       <c r="J271" s="10"/>
@@ -45949,8 +46351,12 @@
       </c>
       <c r="D272" s="36"/>
       <c r="E272" s="10"/>
-      <c r="F272" s="10"/>
-      <c r="G272" s="10"/>
+      <c r="F272" s="6">
+        <v>167</v>
+      </c>
+      <c r="G272" s="6">
+        <v>77</v>
+      </c>
       <c r="H272" s="45"/>
       <c r="I272" s="10"/>
       <c r="J272" s="10"/>
@@ -46063,8 +46469,12 @@
       </c>
       <c r="D273" s="36"/>
       <c r="E273" s="10"/>
-      <c r="F273" s="10"/>
-      <c r="G273" s="10"/>
+      <c r="F273" s="6">
+        <v>183</v>
+      </c>
+      <c r="G273" s="6">
+        <v>118</v>
+      </c>
       <c r="H273" s="45"/>
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
@@ -46177,8 +46587,12 @@
       </c>
       <c r="D274" s="36"/>
       <c r="E274" s="10"/>
-      <c r="F274" s="10"/>
-      <c r="G274" s="10"/>
+      <c r="F274" s="6">
+        <v>176</v>
+      </c>
+      <c r="G274" s="6">
+        <v>77</v>
+      </c>
       <c r="H274" s="45"/>
       <c r="I274" s="10"/>
       <c r="J274" s="10"/>
@@ -46291,8 +46705,12 @@
       </c>
       <c r="D275" s="36"/>
       <c r="E275" s="10"/>
-      <c r="F275" s="10"/>
-      <c r="G275" s="10"/>
+      <c r="F275" s="6">
+        <v>167</v>
+      </c>
+      <c r="G275" s="6">
+        <v>86</v>
+      </c>
       <c r="H275" s="45"/>
       <c r="I275" s="10"/>
       <c r="J275" s="10"/>
@@ -46405,8 +46823,12 @@
       </c>
       <c r="D276" s="36"/>
       <c r="E276" s="10"/>
-      <c r="F276" s="10"/>
-      <c r="G276" s="10"/>
+      <c r="F276" s="6">
+        <v>152</v>
+      </c>
+      <c r="G276" s="6">
+        <v>75</v>
+      </c>
       <c r="H276" s="45"/>
       <c r="I276" s="10"/>
       <c r="J276" s="10"/>
@@ -46519,8 +46941,12 @@
       </c>
       <c r="D277" s="36"/>
       <c r="E277" s="10"/>
-      <c r="F277" s="10"/>
-      <c r="G277" s="10"/>
+      <c r="F277" s="6">
+        <v>176</v>
+      </c>
+      <c r="G277" s="6">
+        <v>85</v>
+      </c>
       <c r="H277" s="45"/>
       <c r="I277" s="10"/>
       <c r="J277" s="10"/>
@@ -46633,8 +47059,12 @@
       </c>
       <c r="D278" s="36"/>
       <c r="E278" s="10"/>
-      <c r="F278" s="10"/>
-      <c r="G278" s="10"/>
+      <c r="F278" s="6">
+        <v>186</v>
+      </c>
+      <c r="G278" s="6">
+        <v>106</v>
+      </c>
       <c r="H278" s="45"/>
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
@@ -46747,8 +47177,12 @@
       </c>
       <c r="D279" s="36"/>
       <c r="E279" s="10"/>
-      <c r="F279" s="10"/>
-      <c r="G279" s="10"/>
+      <c r="F279" s="6">
+        <v>173</v>
+      </c>
+      <c r="G279" s="6">
+        <v>77.5</v>
+      </c>
       <c r="H279" s="45"/>
       <c r="I279" s="10"/>
       <c r="J279" s="10"/>
@@ -46861,8 +47295,12 @@
       </c>
       <c r="D280" s="36"/>
       <c r="E280" s="10"/>
-      <c r="F280" s="10"/>
-      <c r="G280" s="10"/>
+      <c r="F280" s="6">
+        <v>161</v>
+      </c>
+      <c r="G280" s="6">
+        <v>76</v>
+      </c>
       <c r="H280" s="45"/>
       <c r="I280" s="10"/>
       <c r="J280" s="10"/>
@@ -46975,8 +47413,12 @@
       </c>
       <c r="D281" s="36"/>
       <c r="E281" s="10"/>
-      <c r="F281" s="10"/>
-      <c r="G281" s="10"/>
+      <c r="F281" s="6">
+        <v>159</v>
+      </c>
+      <c r="G281" s="6">
+        <v>67</v>
+      </c>
       <c r="H281" s="45"/>
       <c r="I281" s="10"/>
       <c r="J281" s="10"/>
@@ -47089,8 +47531,12 @@
       </c>
       <c r="D282" s="36"/>
       <c r="E282" s="10"/>
-      <c r="F282" s="10"/>
-      <c r="G282" s="10"/>
+      <c r="F282" s="6">
+        <v>165</v>
+      </c>
+      <c r="G282" s="6">
+        <v>82</v>
+      </c>
       <c r="H282" s="45"/>
       <c r="I282" s="10"/>
       <c r="J282" s="10"/>
@@ -47203,8 +47649,12 @@
       </c>
       <c r="D283" s="36"/>
       <c r="E283" s="10"/>
-      <c r="F283" s="10"/>
-      <c r="G283" s="10"/>
+      <c r="F283" s="6">
+        <v>168</v>
+      </c>
+      <c r="G283" s="6">
+        <v>69</v>
+      </c>
       <c r="H283" s="45"/>
       <c r="I283" s="10"/>
       <c r="J283" s="10"/>
@@ -47317,8 +47767,12 @@
       </c>
       <c r="D284" s="36"/>
       <c r="E284" s="10"/>
-      <c r="F284" s="10"/>
-      <c r="G284" s="10"/>
+      <c r="F284" s="6">
+        <v>189</v>
+      </c>
+      <c r="G284" s="6">
+        <v>90</v>
+      </c>
       <c r="H284" s="45"/>
       <c r="I284" s="10"/>
       <c r="J284" s="10"/>
@@ -47431,8 +47885,12 @@
       </c>
       <c r="D285" s="36"/>
       <c r="E285" s="10"/>
-      <c r="F285" s="10"/>
-      <c r="G285" s="10"/>
+      <c r="F285" s="6">
+        <v>185</v>
+      </c>
+      <c r="G285" s="6">
+        <v>93</v>
+      </c>
       <c r="H285" s="45"/>
       <c r="I285" s="10"/>
       <c r="J285" s="10"/>
@@ -47545,8 +48003,12 @@
       </c>
       <c r="D286" s="36"/>
       <c r="E286" s="10"/>
-      <c r="F286" s="10"/>
-      <c r="G286" s="10"/>
+      <c r="F286" s="6">
+        <v>173</v>
+      </c>
+      <c r="G286" s="6">
+        <v>73</v>
+      </c>
       <c r="H286" s="45"/>
       <c r="I286" s="10"/>
       <c r="J286" s="10"/>
@@ -47659,8 +48121,12 @@
       </c>
       <c r="D287" s="36"/>
       <c r="E287" s="10"/>
-      <c r="F287" s="10"/>
-      <c r="G287" s="10"/>
+      <c r="F287" s="6">
+        <v>153</v>
+      </c>
+      <c r="G287" s="6">
+        <v>63</v>
+      </c>
       <c r="H287" s="45"/>
       <c r="I287" s="10"/>
       <c r="J287" s="10"/>
@@ -47773,8 +48239,12 @@
       </c>
       <c r="D288" s="36"/>
       <c r="E288" s="10"/>
-      <c r="F288" s="10"/>
-      <c r="G288" s="10"/>
+      <c r="F288" s="6">
+        <v>169</v>
+      </c>
+      <c r="G288" s="6">
+        <v>89</v>
+      </c>
       <c r="H288" s="45"/>
       <c r="I288" s="10"/>
       <c r="J288" s="10"/>
@@ -47887,8 +48357,12 @@
       </c>
       <c r="D289" s="36"/>
       <c r="E289" s="10"/>
-      <c r="F289" s="10"/>
-      <c r="G289" s="10"/>
+      <c r="F289" s="6">
+        <v>180</v>
+      </c>
+      <c r="G289" s="6">
+        <v>71</v>
+      </c>
       <c r="H289" s="45"/>
       <c r="I289" s="10"/>
       <c r="J289" s="10"/>
@@ -48001,8 +48475,12 @@
       </c>
       <c r="D290" s="36"/>
       <c r="E290" s="10"/>
-      <c r="F290" s="10"/>
-      <c r="G290" s="10"/>
+      <c r="F290" s="6">
+        <v>168</v>
+      </c>
+      <c r="G290" s="6">
+        <v>75</v>
+      </c>
       <c r="H290" s="45"/>
       <c r="I290" s="10"/>
       <c r="J290" s="10"/>
@@ -48115,8 +48593,12 @@
       </c>
       <c r="D291" s="36"/>
       <c r="E291" s="10"/>
-      <c r="F291" s="10"/>
-      <c r="G291" s="10"/>
+      <c r="F291" s="6">
+        <v>167</v>
+      </c>
+      <c r="G291" s="6">
+        <v>83</v>
+      </c>
       <c r="H291" s="45"/>
       <c r="I291" s="10"/>
       <c r="J291" s="10"/>
@@ -48229,8 +48711,12 @@
       </c>
       <c r="D292" s="36"/>
       <c r="E292" s="10"/>
-      <c r="F292" s="10"/>
-      <c r="G292" s="10"/>
+      <c r="F292" s="6">
+        <v>170</v>
+      </c>
+      <c r="G292" s="6">
+        <v>73</v>
+      </c>
       <c r="H292" s="45"/>
       <c r="I292" s="10"/>
       <c r="J292" s="10"/>
@@ -48343,8 +48829,12 @@
       </c>
       <c r="D293" s="36"/>
       <c r="E293" s="10"/>
-      <c r="F293" s="10"/>
-      <c r="G293" s="10"/>
+      <c r="F293" s="6">
+        <v>172</v>
+      </c>
+      <c r="G293" s="6">
+        <v>112</v>
+      </c>
       <c r="H293" s="45"/>
       <c r="I293" s="10"/>
       <c r="J293" s="10"/>
@@ -48457,8 +48947,12 @@
       </c>
       <c r="D294" s="36"/>
       <c r="E294" s="10"/>
-      <c r="F294" s="10"/>
-      <c r="G294" s="10"/>
+      <c r="F294" s="6">
+        <v>166</v>
+      </c>
+      <c r="G294" s="6">
+        <v>84</v>
+      </c>
       <c r="H294" s="45"/>
       <c r="I294" s="10"/>
       <c r="J294" s="10"/>
@@ -48571,8 +49065,12 @@
       </c>
       <c r="D295" s="36"/>
       <c r="E295" s="10"/>
-      <c r="F295" s="10"/>
-      <c r="G295" s="10"/>
+      <c r="F295" s="6">
+        <v>179</v>
+      </c>
+      <c r="G295" s="6">
+        <v>98</v>
+      </c>
       <c r="H295" s="45"/>
       <c r="I295" s="10"/>
       <c r="J295" s="10"/>
@@ -48685,8 +49183,12 @@
       </c>
       <c r="D296" s="36"/>
       <c r="E296" s="10"/>
-      <c r="F296" s="10"/>
-      <c r="G296" s="10"/>
+      <c r="F296" s="6">
+        <v>173</v>
+      </c>
+      <c r="G296" s="6">
+        <v>73</v>
+      </c>
       <c r="H296" s="45"/>
       <c r="I296" s="10"/>
       <c r="J296" s="10"/>
@@ -48799,8 +49301,12 @@
       </c>
       <c r="D297" s="36"/>
       <c r="E297" s="10"/>
-      <c r="F297" s="10"/>
-      <c r="G297" s="10"/>
+      <c r="F297" s="6">
+        <v>171</v>
+      </c>
+      <c r="G297" s="6">
+        <v>75</v>
+      </c>
       <c r="H297" s="45"/>
       <c r="I297" s="10"/>
       <c r="J297" s="10"/>
@@ -48913,8 +49419,12 @@
       </c>
       <c r="D298" s="36"/>
       <c r="E298" s="10"/>
-      <c r="F298" s="10"/>
-      <c r="G298" s="10"/>
+      <c r="F298" s="6">
+        <v>177</v>
+      </c>
+      <c r="G298" s="6">
+        <v>110</v>
+      </c>
       <c r="H298" s="45"/>
       <c r="I298" s="10"/>
       <c r="J298" s="10"/>
@@ -49027,8 +49537,12 @@
       </c>
       <c r="D299" s="36"/>
       <c r="E299" s="10"/>
-      <c r="F299" s="10"/>
-      <c r="G299" s="10"/>
+      <c r="F299" s="6">
+        <v>173</v>
+      </c>
+      <c r="G299" s="6">
+        <v>82</v>
+      </c>
       <c r="H299" s="45"/>
       <c r="I299" s="10"/>
       <c r="J299" s="10"/>
@@ -49141,8 +49655,12 @@
       </c>
       <c r="D300" s="36"/>
       <c r="E300" s="10"/>
-      <c r="F300" s="10"/>
-      <c r="G300" s="10"/>
+      <c r="F300" s="6">
+        <v>174</v>
+      </c>
+      <c r="G300" s="6">
+        <v>100</v>
+      </c>
       <c r="H300" s="45"/>
       <c r="I300" s="10"/>
       <c r="J300" s="10"/>
@@ -49255,8 +49773,12 @@
       </c>
       <c r="D301" s="36"/>
       <c r="E301" s="10"/>
-      <c r="F301" s="10"/>
-      <c r="G301" s="10"/>
+      <c r="F301" s="6">
+        <v>167</v>
+      </c>
+      <c r="G301" s="6">
+        <v>75</v>
+      </c>
       <c r="H301" s="45"/>
       <c r="I301" s="10"/>
       <c r="J301" s="10"/>
@@ -49369,8 +49891,12 @@
       </c>
       <c r="D302" s="36"/>
       <c r="E302" s="10"/>
-      <c r="F302" s="10"/>
-      <c r="G302" s="10"/>
+      <c r="F302" s="6">
+        <v>170</v>
+      </c>
+      <c r="G302" s="6">
+        <v>137</v>
+      </c>
       <c r="H302" s="45"/>
       <c r="I302" s="10"/>
       <c r="J302" s="10"/>
@@ -49483,8 +50009,12 @@
       </c>
       <c r="D303" s="36"/>
       <c r="E303" s="10"/>
-      <c r="F303" s="10"/>
-      <c r="G303" s="10"/>
+      <c r="F303" s="6">
+        <v>175</v>
+      </c>
+      <c r="G303" s="6">
+        <v>100</v>
+      </c>
       <c r="H303" s="45"/>
       <c r="I303" s="10"/>
       <c r="J303" s="10"/>
@@ -49597,8 +50127,12 @@
       </c>
       <c r="D304" s="36"/>
       <c r="E304" s="10"/>
-      <c r="F304" s="10"/>
-      <c r="G304" s="10"/>
+      <c r="F304" s="6">
+        <v>170</v>
+      </c>
+      <c r="G304" s="6">
+        <v>70</v>
+      </c>
       <c r="H304" s="45"/>
       <c r="I304" s="10"/>
       <c r="J304" s="10"/>
@@ -49711,8 +50245,12 @@
       </c>
       <c r="D305" s="36"/>
       <c r="E305" s="10"/>
-      <c r="F305" s="10"/>
-      <c r="G305" s="10"/>
+      <c r="F305" s="6">
+        <v>152</v>
+      </c>
+      <c r="G305" s="6">
+        <v>39</v>
+      </c>
       <c r="H305" s="45"/>
       <c r="I305" s="10"/>
       <c r="J305" s="10"/>
@@ -49825,8 +50363,12 @@
       </c>
       <c r="D306" s="36"/>
       <c r="E306" s="10"/>
-      <c r="F306" s="10"/>
-      <c r="G306" s="10"/>
+      <c r="F306" s="6">
+        <v>167</v>
+      </c>
+      <c r="G306" s="6">
+        <v>89</v>
+      </c>
       <c r="H306" s="45"/>
       <c r="I306" s="10"/>
       <c r="J306" s="10"/>
@@ -49939,8 +50481,12 @@
       </c>
       <c r="D307" s="36"/>
       <c r="E307" s="10"/>
-      <c r="F307" s="10"/>
-      <c r="G307" s="10"/>
+      <c r="F307" s="6">
+        <v>182</v>
+      </c>
+      <c r="G307" s="6">
+        <v>111</v>
+      </c>
       <c r="H307" s="45"/>
       <c r="I307" s="10"/>
       <c r="J307" s="10"/>
@@ -50053,8 +50599,12 @@
       </c>
       <c r="D308" s="36"/>
       <c r="E308" s="10"/>
-      <c r="F308" s="10"/>
-      <c r="G308" s="10"/>
+      <c r="F308" s="6">
+        <v>172</v>
+      </c>
+      <c r="G308" s="6">
+        <v>88</v>
+      </c>
       <c r="H308" s="45"/>
       <c r="I308" s="10"/>
       <c r="J308" s="10"/>
@@ -50167,8 +50717,12 @@
       </c>
       <c r="D309" s="36"/>
       <c r="E309" s="10"/>
-      <c r="F309" s="10"/>
-      <c r="G309" s="10"/>
+      <c r="F309" s="6">
+        <v>165</v>
+      </c>
+      <c r="G309" s="6">
+        <v>91</v>
+      </c>
       <c r="H309" s="45"/>
       <c r="I309" s="10"/>
       <c r="J309" s="10"/>
@@ -50281,8 +50835,12 @@
       </c>
       <c r="D310" s="36"/>
       <c r="E310" s="10"/>
-      <c r="F310" s="10"/>
-      <c r="G310" s="10"/>
+      <c r="F310" s="6">
+        <v>161</v>
+      </c>
+      <c r="G310" s="6">
+        <v>68</v>
+      </c>
       <c r="H310" s="45"/>
       <c r="I310" s="10"/>
       <c r="J310" s="10"/>
@@ -50395,8 +50953,12 @@
       </c>
       <c r="D311" s="36"/>
       <c r="E311" s="10"/>
-      <c r="F311" s="10"/>
-      <c r="G311" s="10"/>
+      <c r="F311" s="6">
+        <v>174</v>
+      </c>
+      <c r="G311" s="6">
+        <v>65</v>
+      </c>
       <c r="H311" s="45"/>
       <c r="I311" s="10"/>
       <c r="J311" s="10"/>
@@ -50509,8 +51071,12 @@
       </c>
       <c r="D312" s="36"/>
       <c r="E312" s="10"/>
-      <c r="F312" s="10"/>
-      <c r="G312" s="10"/>
+      <c r="F312" s="6">
+        <v>168</v>
+      </c>
+      <c r="G312" s="6">
+        <v>102</v>
+      </c>
       <c r="H312" s="45"/>
       <c r="I312" s="10"/>
       <c r="J312" s="10"/>
@@ -50623,8 +51189,12 @@
       </c>
       <c r="D313" s="36"/>
       <c r="E313" s="10"/>
-      <c r="F313" s="10"/>
-      <c r="G313" s="10"/>
+      <c r="F313" s="6">
+        <v>175</v>
+      </c>
+      <c r="G313" s="6">
+        <v>83</v>
+      </c>
       <c r="H313" s="45"/>
       <c r="I313" s="10"/>
       <c r="J313" s="10"/>
@@ -50737,8 +51307,12 @@
       </c>
       <c r="D314" s="36"/>
       <c r="E314" s="10"/>
-      <c r="F314" s="10"/>
-      <c r="G314" s="10"/>
+      <c r="F314" s="6">
+        <v>173</v>
+      </c>
+      <c r="G314" s="6">
+        <v>78</v>
+      </c>
       <c r="H314" s="45"/>
       <c r="I314" s="10"/>
       <c r="J314" s="10"/>
@@ -50851,8 +51425,12 @@
       </c>
       <c r="D315" s="36"/>
       <c r="E315" s="10"/>
-      <c r="F315" s="10"/>
-      <c r="G315" s="10"/>
+      <c r="F315" s="6">
+        <v>162</v>
+      </c>
+      <c r="G315" s="6">
+        <v>73</v>
+      </c>
       <c r="H315" s="45"/>
       <c r="I315" s="10"/>
       <c r="J315" s="10"/>
@@ -50965,8 +51543,12 @@
       </c>
       <c r="D316" s="36"/>
       <c r="E316" s="10"/>
-      <c r="F316" s="10"/>
-      <c r="G316" s="10"/>
+      <c r="F316" s="6">
+        <v>159</v>
+      </c>
+      <c r="G316" s="6">
+        <v>67</v>
+      </c>
       <c r="H316" s="45"/>
       <c r="I316" s="10"/>
       <c r="J316" s="10"/>
@@ -51079,8 +51661,12 @@
       </c>
       <c r="D317" s="36"/>
       <c r="E317" s="10"/>
-      <c r="F317" s="10"/>
-      <c r="G317" s="10"/>
+      <c r="F317" s="6">
+        <v>181</v>
+      </c>
+      <c r="G317" s="6">
+        <v>101</v>
+      </c>
       <c r="H317" s="45"/>
       <c r="I317" s="10"/>
       <c r="J317" s="10"/>
@@ -51193,8 +51779,12 @@
       </c>
       <c r="D318" s="36"/>
       <c r="E318" s="10"/>
-      <c r="F318" s="10"/>
-      <c r="G318" s="10"/>
+      <c r="F318" s="6">
+        <v>167</v>
+      </c>
+      <c r="G318" s="6">
+        <v>95</v>
+      </c>
       <c r="H318" s="45"/>
       <c r="I318" s="10"/>
       <c r="J318" s="10"/>
@@ -51307,8 +51897,12 @@
       </c>
       <c r="D319" s="36"/>
       <c r="E319" s="10"/>
-      <c r="F319" s="10"/>
-      <c r="G319" s="10"/>
+      <c r="F319" s="6">
+        <v>178</v>
+      </c>
+      <c r="G319" s="6">
+        <v>93</v>
+      </c>
       <c r="H319" s="45"/>
       <c r="I319" s="10"/>
       <c r="J319" s="10"/>
@@ -51421,8 +52015,12 @@
       </c>
       <c r="D320" s="36"/>
       <c r="E320" s="10"/>
-      <c r="F320" s="10"/>
-      <c r="G320" s="10"/>
+      <c r="F320" s="6">
+        <v>179</v>
+      </c>
+      <c r="G320" s="6">
+        <v>91</v>
+      </c>
       <c r="H320" s="45"/>
       <c r="I320" s="10"/>
       <c r="J320" s="10"/>
@@ -51535,8 +52133,12 @@
       </c>
       <c r="D321" s="36"/>
       <c r="E321" s="10"/>
-      <c r="F321" s="10"/>
-      <c r="G321" s="10"/>
+      <c r="F321" s="6">
+        <v>160</v>
+      </c>
+      <c r="G321" s="6">
+        <v>80</v>
+      </c>
       <c r="H321" s="45"/>
       <c r="I321" s="10"/>
       <c r="J321" s="10"/>
@@ -51649,8 +52251,12 @@
       </c>
       <c r="D322" s="36"/>
       <c r="E322" s="10"/>
-      <c r="F322" s="10"/>
-      <c r="G322" s="10"/>
+      <c r="F322" s="6">
+        <v>162</v>
+      </c>
+      <c r="G322" s="6">
+        <v>51</v>
+      </c>
       <c r="H322" s="45"/>
       <c r="I322" s="10"/>
       <c r="J322" s="10"/>
@@ -51751,7 +52357,7 @@
       <c r="BY322" s="10"/>
       <c r="BZ322" s="10"/>
       <c r="CF322" s="6">
-        <f t="shared" ref="CF322:CF385" si="8">SUM(CA322:CE322)</f>
+        <f t="shared" ref="CF322:CF346" si="8">SUM(CA322:CE322)</f>
         <v>0</v>
       </c>
     </row>
@@ -51763,8 +52369,12 @@
       </c>
       <c r="D323" s="36"/>
       <c r="E323" s="10"/>
-      <c r="F323" s="10"/>
-      <c r="G323" s="10"/>
+      <c r="F323" s="6">
+        <v>180</v>
+      </c>
+      <c r="G323" s="6">
+        <v>88</v>
+      </c>
       <c r="H323" s="45"/>
       <c r="I323" s="10"/>
       <c r="J323" s="10"/>
@@ -51877,8 +52487,12 @@
       </c>
       <c r="D324" s="36"/>
       <c r="E324" s="10"/>
-      <c r="F324" s="10"/>
-      <c r="G324" s="10"/>
+      <c r="F324" s="6">
+        <v>181</v>
+      </c>
+      <c r="G324" s="6">
+        <v>81</v>
+      </c>
       <c r="H324" s="45"/>
       <c r="I324" s="10"/>
       <c r="J324" s="10"/>
@@ -51991,8 +52605,12 @@
       </c>
       <c r="D325" s="36"/>
       <c r="E325" s="10"/>
-      <c r="F325" s="10"/>
-      <c r="G325" s="10"/>
+      <c r="F325" s="6">
+        <v>168</v>
+      </c>
+      <c r="G325" s="6">
+        <v>104</v>
+      </c>
       <c r="H325" s="45"/>
       <c r="I325" s="10"/>
       <c r="J325" s="10"/>
@@ -52105,8 +52723,12 @@
       </c>
       <c r="D326" s="36"/>
       <c r="E326" s="10"/>
-      <c r="F326" s="10"/>
-      <c r="G326" s="10"/>
+      <c r="F326" s="6">
+        <v>156</v>
+      </c>
+      <c r="G326" s="6">
+        <v>71</v>
+      </c>
       <c r="H326" s="45"/>
       <c r="I326" s="10"/>
       <c r="J326" s="10"/>
@@ -52219,8 +52841,12 @@
       </c>
       <c r="D327" s="36"/>
       <c r="E327" s="10"/>
-      <c r="F327" s="10"/>
-      <c r="G327" s="10"/>
+      <c r="F327" s="6">
+        <v>182</v>
+      </c>
+      <c r="G327" s="6">
+        <v>106</v>
+      </c>
       <c r="H327" s="45"/>
       <c r="I327" s="10"/>
       <c r="J327" s="10"/>
@@ -52333,8 +52959,12 @@
       </c>
       <c r="D328" s="36"/>
       <c r="E328" s="10"/>
-      <c r="F328" s="10"/>
-      <c r="G328" s="10"/>
+      <c r="F328" s="6">
+        <v>197</v>
+      </c>
+      <c r="G328" s="6">
+        <v>110</v>
+      </c>
       <c r="H328" s="45"/>
       <c r="I328" s="10"/>
       <c r="J328" s="10"/>
@@ -52447,8 +53077,12 @@
       </c>
       <c r="D329" s="36"/>
       <c r="E329" s="10"/>
-      <c r="F329" s="10"/>
-      <c r="G329" s="10"/>
+      <c r="F329" s="6">
+        <v>187</v>
+      </c>
+      <c r="G329" s="6">
+        <v>85</v>
+      </c>
       <c r="H329" s="45"/>
       <c r="I329" s="10"/>
       <c r="J329" s="10"/>
@@ -52561,8 +53195,12 @@
       </c>
       <c r="D330" s="36"/>
       <c r="E330" s="10"/>
-      <c r="F330" s="10"/>
-      <c r="G330" s="10"/>
+      <c r="F330" s="6">
+        <v>189</v>
+      </c>
+      <c r="G330" s="6">
+        <v>87</v>
+      </c>
       <c r="H330" s="45"/>
       <c r="I330" s="10"/>
       <c r="J330" s="10"/>
@@ -52675,8 +53313,12 @@
       </c>
       <c r="D331" s="36"/>
       <c r="E331" s="10"/>
-      <c r="F331" s="10"/>
-      <c r="G331" s="10"/>
+      <c r="F331" s="6">
+        <v>164</v>
+      </c>
+      <c r="G331" s="6">
+        <v>65</v>
+      </c>
       <c r="H331" s="45"/>
       <c r="I331" s="10"/>
       <c r="J331" s="10"/>
@@ -52789,8 +53431,6 @@
       </c>
       <c r="D332" s="36"/>
       <c r="E332" s="10"/>
-      <c r="F332" s="10"/>
-      <c r="G332" s="10"/>
       <c r="H332" s="45"/>
       <c r="I332" s="10"/>
       <c r="J332" s="10"/>
@@ -52903,8 +53543,6 @@
       </c>
       <c r="D333" s="36"/>
       <c r="E333" s="10"/>
-      <c r="F333" s="10"/>
-      <c r="G333" s="10"/>
       <c r="H333" s="45"/>
       <c r="I333" s="10"/>
       <c r="J333" s="10"/>
@@ -53017,8 +53655,6 @@
       </c>
       <c r="D334" s="36"/>
       <c r="E334" s="10"/>
-      <c r="F334" s="10"/>
-      <c r="G334" s="10"/>
       <c r="H334" s="45"/>
       <c r="I334" s="10"/>
       <c r="J334" s="10"/>
@@ -53131,8 +53767,6 @@
       </c>
       <c r="D335" s="36"/>
       <c r="E335" s="10"/>
-      <c r="F335" s="10"/>
-      <c r="G335" s="10"/>
       <c r="H335" s="45"/>
       <c r="I335" s="10"/>
       <c r="J335" s="10"/>
@@ -53245,8 +53879,6 @@
       </c>
       <c r="D336" s="36"/>
       <c r="E336" s="10"/>
-      <c r="F336" s="10"/>
-      <c r="G336" s="10"/>
       <c r="H336" s="45"/>
       <c r="I336" s="10"/>
       <c r="J336" s="10"/>
@@ -53359,8 +53991,6 @@
       </c>
       <c r="D337" s="36"/>
       <c r="E337" s="10"/>
-      <c r="F337" s="10"/>
-      <c r="G337" s="10"/>
       <c r="H337" s="45"/>
       <c r="I337" s="10"/>
       <c r="J337" s="10"/>
@@ -53473,8 +54103,6 @@
       </c>
       <c r="D338" s="36"/>
       <c r="E338" s="10"/>
-      <c r="F338" s="10"/>
-      <c r="G338" s="10"/>
       <c r="H338" s="45"/>
       <c r="I338" s="10"/>
       <c r="J338" s="10"/>
@@ -53587,8 +54215,6 @@
       </c>
       <c r="D339" s="36"/>
       <c r="E339" s="10"/>
-      <c r="F339" s="10"/>
-      <c r="G339" s="10"/>
       <c r="H339" s="45"/>
       <c r="I339" s="10"/>
       <c r="J339" s="10"/>
@@ -53701,8 +54327,6 @@
       </c>
       <c r="D340" s="36"/>
       <c r="E340" s="10"/>
-      <c r="F340" s="10"/>
-      <c r="G340" s="10"/>
       <c r="H340" s="45"/>
       <c r="I340" s="10"/>
       <c r="J340" s="10"/>
@@ -53815,8 +54439,6 @@
       </c>
       <c r="D341" s="36"/>
       <c r="E341" s="10"/>
-      <c r="F341" s="10"/>
-      <c r="G341" s="10"/>
       <c r="H341" s="45"/>
       <c r="I341" s="10"/>
       <c r="J341" s="10"/>
@@ -53929,8 +54551,6 @@
       </c>
       <c r="D342" s="36"/>
       <c r="E342" s="10"/>
-      <c r="F342" s="10"/>
-      <c r="G342" s="10"/>
       <c r="H342" s="45"/>
       <c r="I342" s="10"/>
       <c r="J342" s="10"/>
@@ -54043,8 +54663,6 @@
       </c>
       <c r="D343" s="36"/>
       <c r="E343" s="10"/>
-      <c r="F343" s="10"/>
-      <c r="G343" s="10"/>
       <c r="H343" s="45"/>
       <c r="I343" s="10"/>
       <c r="J343" s="10"/>
@@ -54157,8 +54775,6 @@
       </c>
       <c r="D344" s="36"/>
       <c r="E344" s="10"/>
-      <c r="F344" s="10"/>
-      <c r="G344" s="10"/>
       <c r="H344" s="45"/>
       <c r="I344" s="10"/>
       <c r="J344" s="10"/>
@@ -54271,8 +54887,6 @@
       </c>
       <c r="D345" s="36"/>
       <c r="E345" s="10"/>
-      <c r="F345" s="10"/>
-      <c r="G345" s="10"/>
       <c r="H345" s="45"/>
       <c r="I345" s="10"/>
       <c r="J345" s="10"/>
@@ -54385,8 +54999,6 @@
       </c>
       <c r="D346" s="36"/>
       <c r="E346" s="10"/>
-      <c r="F346" s="10"/>
-      <c r="G346" s="10"/>
       <c r="H346" s="45"/>
       <c r="I346" s="10"/>
       <c r="J346" s="10"/>
@@ -54492,308 +55104,453 @@
       </c>
     </row>
     <row r="347" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A347" s="47"/>
-      <c r="B347" s="47"/>
-      <c r="C347" s="47"/>
+      <c r="A347" s="44"/>
+      <c r="B347" s="48"/>
+      <c r="C347" s="48"/>
       <c r="D347" s="36"/>
-      <c r="E347" s="10"/>
-      <c r="F347" s="10"/>
-      <c r="G347" s="10"/>
-      <c r="H347" s="45"/>
-      <c r="I347" s="10"/>
-      <c r="J347" s="10"/>
-      <c r="K347" s="10"/>
-      <c r="L347" s="10"/>
-      <c r="M347" s="10"/>
-      <c r="N347" s="10"/>
-      <c r="O347" s="10"/>
-      <c r="P347" s="10"/>
-      <c r="Q347" s="10"/>
-      <c r="R347" s="10"/>
-      <c r="S347" s="10"/>
-      <c r="T347" s="10"/>
-      <c r="U347" s="10"/>
-      <c r="V347" s="10"/>
-      <c r="W347" s="10"/>
-      <c r="X347" s="10"/>
-      <c r="Y347" s="10"/>
-      <c r="Z347" s="10"/>
-      <c r="AA347" s="10"/>
-      <c r="AB347" s="10"/>
-      <c r="AC347" s="10"/>
-      <c r="AD347" s="10"/>
-      <c r="AE347" s="10"/>
-      <c r="AF347" s="10"/>
-      <c r="AG347" s="10"/>
-      <c r="AH347" s="10"/>
-      <c r="AI347" s="10"/>
-      <c r="AJ347" s="10"/>
-      <c r="AK347" s="10"/>
-      <c r="AL347" s="10"/>
-      <c r="AM347" s="10"/>
-      <c r="AN347" s="10"/>
-      <c r="AO347" s="10"/>
-      <c r="AP347" s="10"/>
-      <c r="AQ347" s="10"/>
-      <c r="AR347" s="10"/>
-      <c r="AS347" s="10"/>
-      <c r="AT347" s="10"/>
-      <c r="AU347" s="10"/>
-      <c r="AV347" s="10"/>
-      <c r="AW347" s="10"/>
-      <c r="AX347" s="10"/>
-      <c r="AY347" s="10"/>
-      <c r="AZ347" s="10"/>
-      <c r="BA347" s="10"/>
-      <c r="BB347" s="10"/>
-      <c r="BC347" s="10"/>
-      <c r="BD347" s="10"/>
-      <c r="BE347" s="10"/>
-      <c r="BF347" s="10"/>
-      <c r="BG347" s="10"/>
-      <c r="BH347" s="10"/>
-      <c r="BI347" s="10"/>
-      <c r="BJ347" s="10"/>
-      <c r="BK347" s="10"/>
-      <c r="BL347" s="10"/>
-      <c r="BM347" s="10"/>
-      <c r="BN347" s="10"/>
-      <c r="BO347" s="10"/>
-      <c r="BP347" s="10"/>
-      <c r="BQ347" s="10"/>
-      <c r="BR347" s="10"/>
-      <c r="BS347" s="10"/>
-      <c r="BT347" s="10"/>
-      <c r="BU347" s="10"/>
-      <c r="BV347" s="10"/>
-      <c r="BW347" s="10"/>
-      <c r="BX347" s="10"/>
-      <c r="BY347" s="10"/>
-      <c r="BZ347" s="10"/>
-      <c r="CA347" s="10"/>
-      <c r="CB347" s="10"/>
-      <c r="CC347" s="10"/>
-      <c r="CD347" s="10"/>
-      <c r="CE347" s="10"/>
-      <c r="CF347" s="10"/>
+      <c r="H347" s="43"/>
+      <c r="CF347" s="49">
+        <f t="shared" ref="CF347:CF375" si="9">SUM(CA347:CE347)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="348" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A348" s="8"/>
+      <c r="A348" s="44"/>
       <c r="B348" s="8"/>
       <c r="C348" s="8"/>
+      <c r="D348" s="36"/>
       <c r="H348" s="43"/>
+      <c r="CF348" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="349" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A349" s="8"/>
+      <c r="A349" s="44"/>
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
+      <c r="D349" s="36"/>
       <c r="H349" s="43"/>
+      <c r="CF349" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="350" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A350" s="8"/>
+      <c r="A350" s="44"/>
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
+      <c r="D350" s="36"/>
       <c r="H350" s="43"/>
+      <c r="CF350" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="351" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A351" s="8"/>
+      <c r="A351" s="44"/>
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
+      <c r="D351" s="36"/>
       <c r="H351" s="43"/>
+      <c r="CF351" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="352" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A352" s="8"/>
+      <c r="A352" s="44"/>
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
+      <c r="D352" s="36"/>
       <c r="H352" s="43"/>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A353" s="8"/>
+      <c r="CF352" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A353" s="44"/>
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
+      <c r="D353" s="36"/>
       <c r="H353" s="43"/>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354" s="8"/>
+      <c r="CF353" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A354" s="44"/>
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
+      <c r="D354" s="36"/>
       <c r="H354" s="43"/>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A355" s="8"/>
+      <c r="CF354" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A355" s="44"/>
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
+      <c r="D355" s="36"/>
       <c r="H355" s="43"/>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A356" s="8"/>
+      <c r="CF355" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A356" s="44"/>
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
+      <c r="D356" s="36"/>
       <c r="H356" s="43"/>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A357" s="8"/>
+      <c r="CF356" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A357" s="44"/>
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
+      <c r="D357" s="36"/>
       <c r="H357" s="43"/>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A358" s="8"/>
+      <c r="CF357" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A358" s="44"/>
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
+      <c r="D358" s="36"/>
       <c r="H358" s="43"/>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A359" s="8"/>
+      <c r="CF358" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A359" s="44"/>
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
+      <c r="D359" s="36"/>
       <c r="H359" s="43"/>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A360" s="8"/>
+      <c r="CF359" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A360" s="44"/>
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
+      <c r="D360" s="36"/>
       <c r="H360" s="43"/>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A361" s="8"/>
+      <c r="CF360" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A361" s="44"/>
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
+      <c r="D361" s="36"/>
       <c r="H361" s="43"/>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A362" s="8"/>
+      <c r="CF361" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A362" s="44"/>
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
+      <c r="D362" s="36"/>
       <c r="H362" s="43"/>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A363" s="8"/>
+      <c r="CF362" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A363" s="44"/>
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
+      <c r="D363" s="36"/>
       <c r="H363" s="43"/>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A364" s="8"/>
+      <c r="CF363" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A364" s="44"/>
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
+      <c r="D364" s="36"/>
       <c r="H364" s="43"/>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A365" s="8"/>
+      <c r="CF364" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A365" s="44"/>
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
+      <c r="D365" s="36"/>
       <c r="H365" s="43"/>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A366" s="8"/>
+      <c r="CF365" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A366" s="44"/>
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
+      <c r="D366" s="36"/>
       <c r="H366" s="43"/>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A367" s="8"/>
+      <c r="CF366" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A367" s="44"/>
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
+      <c r="D367" s="36"/>
       <c r="H367" s="43"/>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A368" s="8"/>
+      <c r="CF367" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A368" s="44"/>
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
+      <c r="D368" s="36"/>
       <c r="H368" s="43"/>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A369" s="8"/>
+      <c r="CF368" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A369" s="44"/>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
+      <c r="D369" s="36"/>
       <c r="H369" s="43"/>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A370" s="8"/>
+      <c r="CF369" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A370" s="44"/>
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
+      <c r="D370" s="36"/>
       <c r="H370" s="43"/>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A371" s="8"/>
+      <c r="CF370" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A371" s="44"/>
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
+      <c r="D371" s="36"/>
       <c r="H371" s="43"/>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A372" s="8"/>
+      <c r="CF371" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A372" s="44"/>
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
+      <c r="D372" s="36"/>
       <c r="H372" s="43"/>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A373" s="8"/>
+      <c r="CF372" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A373" s="44"/>
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
+      <c r="D373" s="36"/>
       <c r="H373" s="43"/>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A374" s="8"/>
+      <c r="CF373" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A374" s="44"/>
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
+      <c r="D374" s="36"/>
       <c r="H374" s="43"/>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A375" s="8"/>
+      <c r="CF374" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A375" s="44"/>
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
+      <c r="D375" s="36"/>
       <c r="H375" s="43"/>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A376" s="8"/>
-      <c r="B376" s="8"/>
-      <c r="C376" s="8"/>
-      <c r="H376" s="43"/>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="CF375" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A376" s="47"/>
+      <c r="B376" s="47"/>
+      <c r="C376" s="47"/>
+      <c r="D376" s="36"/>
+      <c r="E376" s="10"/>
+      <c r="F376" s="10"/>
+      <c r="G376" s="10"/>
+      <c r="H376" s="45"/>
+      <c r="I376" s="10"/>
+      <c r="J376" s="10"/>
+      <c r="K376" s="10"/>
+      <c r="L376" s="10"/>
+      <c r="M376" s="10"/>
+      <c r="N376" s="10"/>
+      <c r="O376" s="10"/>
+      <c r="P376" s="10"/>
+      <c r="Q376" s="10"/>
+      <c r="R376" s="10"/>
+      <c r="S376" s="10"/>
+      <c r="T376" s="10"/>
+      <c r="U376" s="10"/>
+      <c r="V376" s="10"/>
+      <c r="W376" s="10"/>
+      <c r="X376" s="10"/>
+      <c r="Y376" s="10"/>
+      <c r="Z376" s="10"/>
+      <c r="AA376" s="10"/>
+      <c r="AB376" s="10"/>
+      <c r="AC376" s="10"/>
+      <c r="AD376" s="10"/>
+      <c r="AE376" s="10"/>
+      <c r="AF376" s="10"/>
+      <c r="AG376" s="10"/>
+      <c r="AH376" s="10"/>
+      <c r="AI376" s="10"/>
+      <c r="AJ376" s="10"/>
+      <c r="AK376" s="10"/>
+      <c r="AL376" s="10"/>
+      <c r="AM376" s="10"/>
+      <c r="AN376" s="10"/>
+      <c r="AO376" s="10"/>
+      <c r="AP376" s="10"/>
+      <c r="AQ376" s="10"/>
+      <c r="AR376" s="10"/>
+      <c r="AS376" s="10"/>
+      <c r="AT376" s="10"/>
+      <c r="AU376" s="10"/>
+      <c r="AV376" s="10"/>
+      <c r="AW376" s="10"/>
+      <c r="AX376" s="10"/>
+      <c r="AY376" s="10"/>
+      <c r="AZ376" s="10"/>
+      <c r="BA376" s="10"/>
+      <c r="BB376" s="10"/>
+      <c r="BC376" s="10"/>
+      <c r="BD376" s="10"/>
+      <c r="BE376" s="10"/>
+      <c r="BF376" s="10"/>
+      <c r="BG376" s="10"/>
+      <c r="BH376" s="10"/>
+      <c r="BI376" s="10"/>
+      <c r="BJ376" s="10"/>
+      <c r="BK376" s="10"/>
+      <c r="BL376" s="10"/>
+      <c r="BM376" s="10"/>
+      <c r="BN376" s="10"/>
+      <c r="BO376" s="10"/>
+      <c r="BP376" s="10"/>
+      <c r="BQ376" s="10"/>
+      <c r="BR376" s="10"/>
+      <c r="BS376" s="10"/>
+      <c r="BT376" s="10"/>
+      <c r="BU376" s="10"/>
+      <c r="BV376" s="10"/>
+      <c r="BW376" s="10"/>
+      <c r="BX376" s="10"/>
+      <c r="BY376" s="10"/>
+      <c r="BZ376" s="10"/>
+      <c r="CA376" s="10"/>
+      <c r="CB376" s="10"/>
+      <c r="CC376" s="10"/>
+      <c r="CD376" s="10"/>
+      <c r="CE376" s="10"/>
+      <c r="CF376" s="10"/>
+    </row>
+    <row r="377" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A377" s="8"/>
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
       <c r="H377" s="43"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A378" s="8"/>
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
       <c r="H378" s="43"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A379" s="8"/>
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
       <c r="H379" s="43"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A380" s="8"/>
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
       <c r="H380" s="43"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A381" s="8"/>
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
       <c r="H381" s="43"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A382" s="8"/>
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
       <c r="H382" s="43"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A383" s="8"/>
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
       <c r="H383" s="43"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A384" s="8"/>
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
@@ -56816,20 +57573,20 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="AR2:AR166">
-    <cfRule type="cellIs" dxfId="175" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="5" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV2:AV167 AX2:AX166">
-    <cfRule type="cellIs" dxfId="174" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="4" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B175">
-    <cfRule type="duplicateValues" dxfId="173" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B166">
-    <cfRule type="duplicateValues" dxfId="171" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -56848,8 +57605,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57265,7 +58022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B03A6A0-DC89-443D-B766-D1E476F6AD98}">
   <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
@@ -58621,7 +59378,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C182 A1:A167">
-    <cfRule type="uniqueValues" dxfId="172" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="84" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
